--- a/teaching/traditional_assets/database/data/turkey/turkey_oil_gas_distribution.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_oil_gas_distribution.xlsx
@@ -644,10 +644,10 @@
         <v>0.2840236686390532</v>
       </c>
       <c r="X2">
-        <v>0.07864671417562377</v>
+        <v>0.07529898625886311</v>
       </c>
       <c r="Y2">
-        <v>0.2053769544634294</v>
+        <v>0.2087246823801901</v>
       </c>
       <c r="Z2">
         <v>-16.01190476190476</v>
@@ -656,10 +656,10 @@
         <v>-0.5285930378752162</v>
       </c>
       <c r="AB2">
-        <v>0.07839223970550291</v>
+        <v>0.07500876065344035</v>
       </c>
       <c r="AC2">
-        <v>-0.6069852775807191</v>
+        <v>-0.6036017985286565</v>
       </c>
       <c r="AD2">
         <v>0.138</v>
@@ -772,10 +772,10 @@
         <v>0.2840236686390532</v>
       </c>
       <c r="X3">
-        <v>0.07864671417562377</v>
+        <v>0.07529898625886311</v>
       </c>
       <c r="Y3">
-        <v>0.2053769544634294</v>
+        <v>0.2087246823801901</v>
       </c>
       <c r="Z3">
         <v>-16.01190476190476</v>
@@ -784,10 +784,10 @@
         <v>-0.5285930378752162</v>
       </c>
       <c r="AB3">
-        <v>0.07839223970550291</v>
+        <v>0.07500876065344035</v>
       </c>
       <c r="AC3">
-        <v>-0.6069852775807191</v>
+        <v>-0.6036017985286565</v>
       </c>
       <c r="AD3">
         <v>0.138</v>
@@ -1087,37 +1087,37 @@
         <v>0.0207581227436823</v>
       </c>
       <c r="F2">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="G2">
         <v>6.51</v>
       </c>
       <c r="H2">
-        <v>5.18842110873093</v>
+        <v>4.67497038636889</v>
       </c>
       <c r="I2">
         <v>6.435</v>
       </c>
       <c r="J2">
-        <v>6.70390110873093</v>
+        <v>6.72229038636889</v>
       </c>
       <c r="K2">
         <v>0.138</v>
       </c>
       <c r="L2">
-        <v>1.72848</v>
+        <v>2.26032</v>
       </c>
       <c r="M2">
-        <v>0.07839223970550289</v>
+        <v>0.07500876065344041</v>
       </c>
       <c r="N2">
-        <v>0.0758815936828697</v>
+        <v>0.072200566697073</v>
       </c>
       <c r="O2">
-        <v>0.066387683180236</v>
+        <v>0.061317683180236</v>
       </c>
       <c r="P2">
-        <v>0.022698</v>
+        <v>0.017628</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="S2">
-        <v>0.0786467141756238</v>
+        <v>0.0752989862588631</v>
       </c>
       <c r="T2">
-        <v>0.0945677211930671</v>
+        <v>0.100313707116777</v>
       </c>
       <c r="U2">
         <v>0.656723350674859</v>
       </c>
       <c r="V2">
-        <v>0.8230915882472341</v>
+        <v>0.905632496545255</v>
       </c>
       <c r="W2">
-        <v>4.672082624369646</v>
+        <v>4.600335389898587</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -1151,16 +1151,16 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0158</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="AA2">
         <v>6.51</v>
       </c>
       <c r="AB2">
-        <v>0.09569739542691996</v>
+        <v>0.10049739542692</v>
       </c>
       <c r="AC2">
-        <v>0.08511241433363595</v>
+        <v>0.07861241433363596</v>
       </c>
       <c r="AD2">
         <v>0.22</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.07762447357113879</v>
+        <v>0.07422547200288908</v>
       </c>
       <c r="C2">
-        <v>6.727912933976675</v>
+        <v>6.725634591028821</v>
       </c>
       <c r="D2">
-        <v>6.514912933976674</v>
+        <v>6.512634591028821</v>
       </c>
       <c r="E2">
         <v>-0.138</v>
@@ -1406,19 +1406,19 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07762447357113879</v>
+        <v>0.07422547200288908</v>
       </c>
       <c r="T2">
         <v>0.6460413399479771</v>
       </c>
       <c r="U2">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V2">
         <v>0.22</v>
       </c>
       <c r="W2">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X2" t="inlineStr">
         <is>
@@ -1437,13 +1437,13 @@
         <v>0.01</v>
       </c>
       <c r="B3">
-        <v>0.07750751972928228</v>
+        <v>0.07411599596448272</v>
       </c>
       <c r="C3">
-        <v>6.673780604087739</v>
+        <v>6.670154613847335</v>
       </c>
       <c r="D3">
-        <v>6.527260604087739</v>
+        <v>6.523634613847335</v>
       </c>
       <c r="E3">
         <v>-0.07152000000000001</v>
@@ -1470,37 +1470,37 @@
         <v>0.235</v>
       </c>
       <c r="M3">
-        <v>0.001509096</v>
+        <v>0.001076976</v>
       </c>
       <c r="N3">
-        <v>0.233490904</v>
+        <v>0.233923024</v>
       </c>
       <c r="O3">
-        <v>0.05136799888</v>
+        <v>0.05146306528</v>
       </c>
       <c r="P3">
-        <v>0.18212290512</v>
+        <v>0.18245995872</v>
       </c>
       <c r="Q3">
-        <v>0.26512290512</v>
+        <v>0.26545995872</v>
       </c>
       <c r="R3">
         <v>0.0101010101010101</v>
       </c>
       <c r="S3">
-        <v>0.07811157548412351</v>
+        <v>0.07473700602473002</v>
       </c>
       <c r="T3">
         <v>0.6511313626263551</v>
       </c>
       <c r="U3">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V3">
         <v>0.22</v>
       </c>
       <c r="W3">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X3" t="inlineStr">
         <is>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="Y3">
-        <v>155.7223662378006</v>
+        <v>218.2035625677824</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1519,13 +1519,13 @@
         <v>0.02</v>
       </c>
       <c r="B4">
-        <v>0.07739056588742578</v>
+        <v>0.07400651992607636</v>
       </c>
       <c r="C4">
-        <v>6.619695167986406</v>
+        <v>6.614711858229362</v>
       </c>
       <c r="D4">
-        <v>6.539655167986406</v>
+        <v>6.534671858229362</v>
       </c>
       <c r="E4">
         <v>-0.005040000000000017</v>
@@ -1552,37 +1552,37 @@
         <v>0.235</v>
       </c>
       <c r="M4">
-        <v>0.003018192</v>
+        <v>0.002153952</v>
       </c>
       <c r="N4">
-        <v>0.231981808</v>
+        <v>0.232846048</v>
       </c>
       <c r="O4">
-        <v>0.05103599776</v>
+        <v>0.05122613056</v>
       </c>
       <c r="P4">
-        <v>0.18094581024</v>
+        <v>0.18161991744</v>
       </c>
       <c r="Q4">
-        <v>0.26394581024</v>
+        <v>0.26461991744</v>
       </c>
       <c r="R4">
         <v>0.02040816326530612</v>
       </c>
       <c r="S4">
-        <v>0.07860861825247528</v>
+        <v>0.07525897951640445</v>
       </c>
       <c r="T4">
         <v>0.6563252633185775</v>
       </c>
       <c r="U4">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V4">
         <v>0.22</v>
       </c>
       <c r="W4">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X4" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="Y4">
-        <v>77.86118311890031</v>
+        <v>109.1017812838912</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1601,13 +1601,13 @@
         <v>0.03</v>
       </c>
       <c r="B5">
-        <v>0.07727361204556926</v>
+        <v>0.07389704388767</v>
       </c>
       <c r="C5">
-        <v>6.56565689331964</v>
+        <v>6.559306513418978</v>
       </c>
       <c r="D5">
-        <v>6.55209689331964</v>
+        <v>6.545746513418978</v>
       </c>
       <c r="E5">
         <v>0.06143999999999997</v>
@@ -1634,37 +1634,37 @@
         <v>0.235</v>
       </c>
       <c r="M5">
-        <v>0.004527288</v>
+        <v>0.003230928</v>
       </c>
       <c r="N5">
-        <v>0.230472712</v>
+        <v>0.231769072</v>
       </c>
       <c r="O5">
-        <v>0.05070399664</v>
+        <v>0.05098919584</v>
       </c>
       <c r="P5">
-        <v>0.17976871536</v>
+        <v>0.18077987616</v>
       </c>
       <c r="Q5">
-        <v>0.26276871536</v>
+        <v>0.26377987616</v>
       </c>
       <c r="R5">
         <v>0.03092783505154639</v>
       </c>
       <c r="S5">
-        <v>0.07911590932532914</v>
+        <v>0.07579171534811341</v>
       </c>
       <c r="T5">
         <v>0.6616262547467221</v>
       </c>
       <c r="U5">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V5">
         <v>0.22</v>
       </c>
       <c r="W5">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X5" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="Y5">
-        <v>51.90745541260021</v>
+        <v>72.73452085592747</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         <v>0.04</v>
       </c>
       <c r="B6">
-        <v>0.07715665820371277</v>
+        <v>0.07378756784926366</v>
       </c>
       <c r="C6">
-        <v>6.511666049775091</v>
+        <v>6.503938769945325</v>
       </c>
       <c r="D6">
-        <v>6.564586049775091</v>
+        <v>6.556858769945325</v>
       </c>
       <c r="E6">
         <v>0.12792</v>
@@ -1716,37 +1716,37 @@
         <v>0.235</v>
       </c>
       <c r="M6">
-        <v>0.006036384000000001</v>
+        <v>0.004307904</v>
       </c>
       <c r="N6">
-        <v>0.228963616</v>
+        <v>0.230692096</v>
       </c>
       <c r="O6">
-        <v>0.05037199552</v>
+        <v>0.05075226112</v>
       </c>
       <c r="P6">
-        <v>0.17859162048</v>
+        <v>0.17993983488</v>
       </c>
       <c r="Q6">
-        <v>0.26159162048</v>
+        <v>0.26293983488</v>
       </c>
       <c r="R6">
         <v>0.04166666666666667</v>
       </c>
       <c r="S6">
-        <v>0.07963376896220081</v>
+        <v>0.07633554984298298</v>
       </c>
       <c r="T6">
         <v>0.6670376834962863</v>
       </c>
       <c r="U6">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V6">
         <v>0.22</v>
       </c>
       <c r="W6">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X6" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="Y6">
-        <v>38.93059155945016</v>
+        <v>54.5508906419456</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0.05</v>
       </c>
       <c r="B7">
-        <v>0.07703970436185627</v>
+        <v>0.0736780918108573</v>
       </c>
       <c r="C7">
-        <v>6.457722909100575</v>
+        <v>6.448608819633542</v>
       </c>
       <c r="D7">
-        <v>6.577122909100575</v>
+        <v>6.568008819633541</v>
       </c>
       <c r="E7">
         <v>0.1944</v>
@@ -1798,37 +1798,37 @@
         <v>0.235</v>
       </c>
       <c r="M7">
-        <v>0.007545480000000001</v>
+        <v>0.00538488</v>
       </c>
       <c r="N7">
-        <v>0.22745452</v>
+        <v>0.22961512</v>
       </c>
       <c r="O7">
-        <v>0.0500399944</v>
+        <v>0.0505153264</v>
       </c>
       <c r="P7">
-        <v>0.1774145256</v>
+        <v>0.1790997936</v>
       </c>
       <c r="Q7">
-        <v>0.2604145256</v>
+        <v>0.2620997936</v>
       </c>
       <c r="R7">
         <v>0.05263157894736843</v>
       </c>
       <c r="S7">
-        <v>0.08016253090721712</v>
+        <v>0.07689083348511294</v>
       </c>
       <c r="T7">
         <v>0.6725630370616309</v>
       </c>
       <c r="U7">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V7">
         <v>0.22</v>
       </c>
       <c r="W7">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X7" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="Y7">
-        <v>31.14447324756012</v>
+        <v>43.64071251355647</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1847,13 +1847,13 @@
         <v>0.06</v>
       </c>
       <c r="B8">
-        <v>0.07692275051999975</v>
+        <v>0.07356861577245093</v>
       </c>
       <c r="C8">
-        <v>6.403827745123785</v>
+        <v>6.393316855615792</v>
       </c>
       <c r="D8">
-        <v>6.589707745123785</v>
+        <v>6.579196855615792</v>
       </c>
       <c r="E8">
         <v>0.2608799999999999</v>
@@ -1880,37 +1880,37 @@
         <v>0.235</v>
       </c>
       <c r="M8">
-        <v>0.009054576</v>
+        <v>0.006461855999999999</v>
       </c>
       <c r="N8">
-        <v>0.225945424</v>
+        <v>0.228538144</v>
       </c>
       <c r="O8">
-        <v>0.04970799327999999</v>
+        <v>0.05027839168</v>
       </c>
       <c r="P8">
-        <v>0.17623743072</v>
+        <v>0.17825975232</v>
       </c>
       <c r="Q8">
-        <v>0.25923743072</v>
+        <v>0.26125975232</v>
       </c>
       <c r="R8">
         <v>0.06382978723404255</v>
       </c>
       <c r="S8">
-        <v>0.08070254310638272</v>
+        <v>0.07745793167282014</v>
       </c>
       <c r="T8">
         <v>0.6782059513411316</v>
       </c>
       <c r="U8">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V8">
         <v>0.22</v>
       </c>
       <c r="W8">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X8" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="Y8">
-        <v>25.9537277063001</v>
+        <v>36.36726042796374</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1929,13 +1929,13 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="B9">
-        <v>0.07680579667814327</v>
+        <v>0.0734591397340446</v>
       </c>
       <c r="C9">
-        <v>6.349980833772223</v>
+        <v>6.338063072342417</v>
       </c>
       <c r="D9">
-        <v>6.602340833772223</v>
+        <v>6.590423072342417</v>
       </c>
       <c r="E9">
         <v>0.32736</v>
@@ -1962,37 +1962,37 @@
         <v>0.235</v>
       </c>
       <c r="M9">
-        <v>0.010563672</v>
+        <v>0.007538832</v>
       </c>
       <c r="N9">
-        <v>0.224436328</v>
+        <v>0.227461168</v>
       </c>
       <c r="O9">
-        <v>0.04937599216</v>
+        <v>0.05004145696</v>
       </c>
       <c r="P9">
-        <v>0.17506033584</v>
+        <v>0.17741971104</v>
       </c>
       <c r="Q9">
-        <v>0.25806033584</v>
+        <v>0.26041971104</v>
       </c>
       <c r="R9">
         <v>0.07526881720430109</v>
       </c>
       <c r="S9">
-        <v>0.0812541684711218</v>
+        <v>0.07803722552047807</v>
       </c>
       <c r="T9">
         <v>0.6839702186158907</v>
       </c>
       <c r="U9">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V9">
         <v>0.22</v>
       </c>
       <c r="W9">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X9" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="Y9">
-        <v>22.2460523196858</v>
+        <v>31.1719375096832</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0.08</v>
       </c>
       <c r="B10">
-        <v>0.07668884283628674</v>
+        <v>0.07334966369563824</v>
       </c>
       <c r="C10">
-        <v>6.296182453093387</v>
+        <v>6.282847665593218</v>
       </c>
       <c r="D10">
-        <v>6.615022453093387</v>
+        <v>6.601687665593218</v>
       </c>
       <c r="E10">
         <v>0.39384</v>
@@ -2044,37 +2044,37 @@
         <v>0.235</v>
       </c>
       <c r="M10">
-        <v>0.012072768</v>
+        <v>0.008615807999999999</v>
       </c>
       <c r="N10">
-        <v>0.222927232</v>
+        <v>0.226384192</v>
       </c>
       <c r="O10">
-        <v>0.04904399103999999</v>
+        <v>0.04980452224</v>
       </c>
       <c r="P10">
-        <v>0.17388324096</v>
+        <v>0.17657966976</v>
       </c>
       <c r="Q10">
-        <v>0.25688324096</v>
+        <v>0.25957966976</v>
       </c>
       <c r="R10">
         <v>0.08695652173913043</v>
       </c>
       <c r="S10">
-        <v>0.08181778569161602</v>
+        <v>0.07862911271265025</v>
       </c>
       <c r="T10">
         <v>0.6898597960487963</v>
       </c>
       <c r="U10">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V10">
         <v>0.22</v>
       </c>
       <c r="W10">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X10" t="inlineStr">
         <is>
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="Y10">
-        <v>19.46529577972507</v>
+        <v>27.2754453209728</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -2093,13 +2093,13 @@
         <v>0.09</v>
       </c>
       <c r="B11">
-        <v>0.07657188899443026</v>
+        <v>0.07324018765723189</v>
       </c>
       <c r="C11">
-        <v>6.242432883275127</v>
+        <v>6.22767083248881</v>
       </c>
       <c r="D11">
-        <v>6.627752883275127</v>
+        <v>6.61299083248881</v>
       </c>
       <c r="E11">
         <v>0.46032</v>
@@ -2126,37 +2126,37 @@
         <v>0.235</v>
       </c>
       <c r="M11">
-        <v>0.013581864</v>
+        <v>0.009692783999999999</v>
       </c>
       <c r="N11">
-        <v>0.221418136</v>
+        <v>0.225307216</v>
       </c>
       <c r="O11">
-        <v>0.04871198992</v>
+        <v>0.04956758752</v>
       </c>
       <c r="P11">
-        <v>0.17270614608</v>
+        <v>0.17573962848</v>
       </c>
       <c r="Q11">
-        <v>0.25570614608</v>
+        <v>0.25873962848</v>
       </c>
       <c r="R11">
         <v>0.0989010989010989</v>
       </c>
       <c r="S11">
-        <v>0.08239379010376952</v>
+        <v>0.07923400841454054</v>
       </c>
       <c r="T11">
         <v>0.695878814743964</v>
       </c>
       <c r="U11">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V11">
         <v>0.22</v>
       </c>
       <c r="W11">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X11" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         </is>
       </c>
       <c r="Y11">
-        <v>17.3024851375334</v>
+        <v>24.24484028530915</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -2175,13 +2175,13 @@
         <v>0.1</v>
       </c>
       <c r="B12">
-        <v>0.07645493515257373</v>
+        <v>0.07313071161882553</v>
       </c>
       <c r="C12">
-        <v>6.18873240666634</v>
+        <v>6.172532771502144</v>
       </c>
       <c r="D12">
-        <v>6.64053240666634</v>
+        <v>6.624332771502144</v>
       </c>
       <c r="E12">
         <v>0.5268</v>
@@ -2208,37 +2208,37 @@
         <v>0.235</v>
       </c>
       <c r="M12">
-        <v>0.01509096</v>
+        <v>0.01076976</v>
       </c>
       <c r="N12">
-        <v>0.21990904</v>
+        <v>0.22423024</v>
       </c>
       <c r="O12">
-        <v>0.0483799888</v>
+        <v>0.0493306528</v>
       </c>
       <c r="P12">
-        <v>0.1715290512</v>
+        <v>0.1748995872</v>
       </c>
       <c r="Q12">
-        <v>0.2545290512</v>
+        <v>0.2578995872</v>
       </c>
       <c r="R12">
         <v>0.1111111111111111</v>
       </c>
       <c r="S12">
-        <v>0.08298259461397081</v>
+        <v>0.07985234624313947</v>
       </c>
       <c r="T12">
         <v>0.7020315894101351</v>
       </c>
       <c r="U12">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V12">
         <v>0.22</v>
       </c>
       <c r="W12">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X12" t="inlineStr">
         <is>
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="Y12">
-        <v>15.57223662378006</v>
+        <v>21.82035625677824</v>
       </c>
       <c r="Z12">
         <v>0</v>
@@ -2257,13 +2257,13 @@
         <v>0.11</v>
       </c>
       <c r="B13">
-        <v>0.07633798131071724</v>
+        <v>0.07302123558041916</v>
       </c>
       <c r="C13">
-        <v>6.135081307797779</v>
+        <v>6.117433682470111</v>
       </c>
       <c r="D13">
-        <v>6.653361307797779</v>
+        <v>6.635713682470111</v>
       </c>
       <c r="E13">
         <v>0.5932799999999999</v>
@@ -2290,37 +2290,37 @@
         <v>0.235</v>
       </c>
       <c r="M13">
-        <v>0.016600056</v>
+        <v>0.011846736</v>
       </c>
       <c r="N13">
-        <v>0.218399944</v>
+        <v>0.223153264</v>
       </c>
       <c r="O13">
-        <v>0.04804798767999999</v>
+        <v>0.04909371808</v>
       </c>
       <c r="P13">
-        <v>0.17035195632</v>
+        <v>0.17405954592</v>
       </c>
       <c r="Q13">
-        <v>0.25335195632</v>
+        <v>0.25705954592</v>
       </c>
       <c r="R13">
         <v>0.1235955056179775</v>
       </c>
       <c r="S13">
-        <v>0.08358463068619915</v>
+        <v>0.08048457930384176</v>
       </c>
       <c r="T13">
         <v>0.7083226286755462</v>
       </c>
       <c r="U13">
-        <v>0.0227</v>
+        <v>0.0162</v>
       </c>
       <c r="V13">
         <v>0.22</v>
       </c>
       <c r="W13">
-        <v>0.017706</v>
+        <v>0.012636</v>
       </c>
       <c r="X13" t="inlineStr">
         <is>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="Y13">
-        <v>14.15657874889097</v>
+        <v>19.83668750616204</v>
       </c>
       <c r="Z13">
         <v>0</v>
@@ -2339,13 +2339,13 @@
         <v>0.12</v>
       </c>
       <c r="B14">
-        <v>0.07637078746886072</v>
+        <v>0.07291175954201282</v>
       </c>
       <c r="C14">
-        <v>6.064997735310603</v>
+        <v>6.062373766605274</v>
       </c>
       <c r="D14">
-        <v>6.649757735310604</v>
+        <v>6.647133766605275</v>
       </c>
       <c r="E14">
         <v>0.6597599999999999</v>
@@ -2372,45 +2372,45 @@
         <v>0.235</v>
       </c>
       <c r="M14">
-        <v>0.019385568</v>
+        <v>0.012923712</v>
       </c>
       <c r="N14">
-        <v>0.215614432</v>
+        <v>0.222076288</v>
       </c>
       <c r="O14">
-        <v>0.04743517504</v>
+        <v>0.04885678336</v>
       </c>
       <c r="P14">
-        <v>0.16817925696</v>
+        <v>0.17321950464</v>
       </c>
       <c r="Q14">
-        <v>0.25117925696</v>
+        <v>0.25621950464</v>
       </c>
       <c r="R14">
         <v>0.1363636363636364</v>
       </c>
       <c r="S14">
-        <v>0.08420034939643264</v>
+        <v>0.08113118129774183</v>
       </c>
       <c r="T14">
         <v>0.7147566461060801</v>
       </c>
       <c r="U14">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V14">
         <v>0.22</v>
       </c>
       <c r="W14">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y14">
-        <v>12.12242014265458</v>
+        <v>18.18363021398186</v>
       </c>
       <c r="Z14">
         <v>0</v>
@@ -2421,13 +2421,13 @@
         <v>0.13</v>
       </c>
       <c r="B15">
-        <v>0.07626631362700421</v>
+        <v>0.07280228350360644</v>
       </c>
       <c r="C15">
-        <v>6.010007202690879</v>
+        <v>6.007353226507749</v>
       </c>
       <c r="D15">
-        <v>6.661247202690879</v>
+        <v>6.658593226507748</v>
       </c>
       <c r="E15">
         <v>0.72624</v>
@@ -2454,45 +2454,45 @@
         <v>0.235</v>
       </c>
       <c r="M15">
-        <v>0.021001032</v>
+        <v>0.014000688</v>
       </c>
       <c r="N15">
-        <v>0.213998968</v>
+        <v>0.220999312</v>
       </c>
       <c r="O15">
-        <v>0.04707977296</v>
+        <v>0.04861984864</v>
       </c>
       <c r="P15">
-        <v>0.16691919504</v>
+        <v>0.17237946336</v>
       </c>
       <c r="Q15">
-        <v>0.24991919504</v>
+        <v>0.25537946336</v>
       </c>
       <c r="R15">
         <v>0.1494252873563219</v>
       </c>
       <c r="S15">
-        <v>0.08483022255977496</v>
+        <v>0.08179264770529476</v>
       </c>
       <c r="T15">
         <v>0.721338571983293</v>
       </c>
       <c r="U15">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V15">
         <v>0.22</v>
       </c>
       <c r="W15">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y15">
-        <v>11.1899262855273</v>
+        <v>16.78488942829095</v>
       </c>
       <c r="Z15">
         <v>0</v>
@@ -2503,13 +2503,13 @@
         <v>0.14</v>
       </c>
       <c r="B16">
-        <v>0.07616183978514771</v>
+        <v>0.0726928074652001</v>
       </c>
       <c r="C16">
-        <v>5.955056441847573</v>
+        <v>5.952372266177155</v>
       </c>
       <c r="D16">
-        <v>6.672776441847573</v>
+        <v>6.670092266177155</v>
       </c>
       <c r="E16">
         <v>0.79272</v>
@@ -2536,45 +2536,45 @@
         <v>0.235</v>
       </c>
       <c r="M16">
-        <v>0.022616496</v>
+        <v>0.015077664</v>
       </c>
       <c r="N16">
-        <v>0.212383504</v>
+        <v>0.219922336</v>
       </c>
       <c r="O16">
-        <v>0.04672437088</v>
+        <v>0.04838291392</v>
       </c>
       <c r="P16">
-        <v>0.16565913312</v>
+        <v>0.17153942208</v>
       </c>
       <c r="Q16">
-        <v>0.24865913312</v>
+        <v>0.25453942208</v>
       </c>
       <c r="R16">
         <v>0.1627906976744186</v>
       </c>
       <c r="S16">
-        <v>0.08547474393621826</v>
+        <v>0.08246949705255825</v>
       </c>
       <c r="T16">
         <v>0.7280735659041621</v>
       </c>
       <c r="U16">
-        <v>0.0243</v>
+        <v>0.0162</v>
       </c>
       <c r="V16">
         <v>0.22</v>
       </c>
       <c r="W16">
-        <v>0.018954</v>
+        <v>0.012636</v>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>Aa2/AA</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y16">
-        <v>10.39064583656106</v>
+        <v>15.5859687548416</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>0.15</v>
       </c>
       <c r="B17">
-        <v>0.0763147659432912</v>
+        <v>0.07258333142679374</v>
       </c>
       <c r="C17">
-        <v>5.871713746445952</v>
+        <v>5.89743109102475</v>
       </c>
       <c r="D17">
-        <v>6.655913746445951</v>
+        <v>6.68163109102475</v>
       </c>
       <c r="E17">
         <v>0.8591999999999999</v>
@@ -2618,45 +2618,45 @@
         <v>0.235</v>
       </c>
       <c r="M17">
-        <v>0.0264258</v>
+        <v>0.01615464</v>
       </c>
       <c r="N17">
-        <v>0.2085742</v>
+        <v>0.21884536</v>
       </c>
       <c r="O17">
-        <v>0.045886324</v>
+        <v>0.0481459792</v>
       </c>
       <c r="P17">
-        <v>0.162687876</v>
+        <v>0.1706993808</v>
       </c>
       <c r="Q17">
-        <v>0.245687876</v>
+        <v>0.2536993808</v>
       </c>
       <c r="R17">
         <v>0.1764705882352941</v>
       </c>
       <c r="S17">
-        <v>0.08613443052151906</v>
+        <v>0.08316227226681616</v>
       </c>
       <c r="T17">
         <v>0.734967030270228</v>
       </c>
       <c r="U17">
-        <v>0.0265</v>
+        <v>0.0162</v>
       </c>
       <c r="V17">
         <v>0.22</v>
       </c>
       <c r="W17">
-        <v>0.02067</v>
+        <v>0.012636</v>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aaa/AAA</t>
         </is>
       </c>
       <c r="Y17">
-        <v>8.892824436724716</v>
+        <v>14.54690417118549</v>
       </c>
       <c r="Z17">
         <v>0</v>
@@ -2667,13 +2667,13 @@
         <v>0.16</v>
       </c>
       <c r="B18">
-        <v>0.07622745210143471</v>
+        <v>0.07267353538838739</v>
       </c>
       <c r="C18">
-        <v>5.814851120339065</v>
+        <v>5.821440660675172</v>
       </c>
       <c r="D18">
-        <v>6.665531120339065</v>
+        <v>6.672120660675172</v>
       </c>
       <c r="E18">
         <v>0.9256799999999999</v>
@@ -2700,45 +2700,45 @@
         <v>0.235</v>
       </c>
       <c r="M18">
-        <v>0.02818752</v>
+        <v>0.018933504</v>
       </c>
       <c r="N18">
-        <v>0.20681248</v>
+        <v>0.216066496</v>
       </c>
       <c r="O18">
-        <v>0.0454987456</v>
+        <v>0.04753462912</v>
       </c>
       <c r="P18">
-        <v>0.1613137344</v>
+        <v>0.16853186688</v>
       </c>
       <c r="Q18">
-        <v>0.2443137344</v>
+        <v>0.25153186688</v>
       </c>
       <c r="R18">
         <v>0.1904761904761905</v>
       </c>
       <c r="S18">
-        <v>0.08680982393027942</v>
+        <v>0.0838715421290326</v>
       </c>
       <c r="T18">
         <v>0.742024624740248</v>
       </c>
       <c r="U18">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V18">
         <v>0.22</v>
       </c>
       <c r="W18">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y18">
-        <v>8.337022909429422</v>
+        <v>12.41185994943144</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2749,13 +2749,13 @@
         <v>0.17</v>
       </c>
       <c r="B19">
-        <v>0.0761401382595782</v>
+        <v>0.07257653934998104</v>
       </c>
       <c r="C19">
-        <v>5.758016327441958</v>
+        <v>5.765188294463347</v>
       </c>
       <c r="D19">
-        <v>6.675176327441958</v>
+        <v>6.682348294463347</v>
       </c>
       <c r="E19">
         <v>0.99216</v>
@@ -2782,45 +2782,45 @@
         <v>0.235</v>
       </c>
       <c r="M19">
-        <v>0.02994924000000001</v>
+        <v>0.020116848</v>
       </c>
       <c r="N19">
-        <v>0.20505076</v>
+        <v>0.214883152</v>
       </c>
       <c r="O19">
-        <v>0.0451111672</v>
+        <v>0.04727429344</v>
       </c>
       <c r="P19">
-        <v>0.1599395928</v>
+        <v>0.16760885856</v>
       </c>
       <c r="Q19">
-        <v>0.2429395928</v>
+        <v>0.25060885856</v>
       </c>
       <c r="R19">
         <v>0.2048192771084338</v>
       </c>
       <c r="S19">
-        <v>0.08750149187900988</v>
+        <v>0.08459790283130245</v>
       </c>
       <c r="T19">
         <v>0.7492522817276178</v>
       </c>
       <c r="U19">
-        <v>0.0265</v>
+        <v>0.0178</v>
       </c>
       <c r="V19">
         <v>0.22</v>
       </c>
       <c r="W19">
-        <v>0.02067</v>
+        <v>0.013884</v>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>A1/A+</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y19">
-        <v>7.846609797110041</v>
+        <v>11.68175054064136</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2831,13 +2831,13 @@
         <v>0.18</v>
       </c>
       <c r="B20">
-        <v>0.07620726441772169</v>
+        <v>0.07247954331157466</v>
       </c>
       <c r="C20">
-        <v>5.684118694047852</v>
+        <v>5.708967332085985</v>
       </c>
       <c r="D20">
-        <v>6.667758694047851</v>
+        <v>6.692607332085985</v>
       </c>
       <c r="E20">
         <v>1.05864</v>
@@ -2864,45 +2864,45 @@
         <v>0.235</v>
       </c>
       <c r="M20">
-        <v>0.033027264</v>
+        <v>0.021300192</v>
       </c>
       <c r="N20">
-        <v>0.201972736</v>
+        <v>0.213699808</v>
       </c>
       <c r="O20">
-        <v>0.04443400192</v>
+        <v>0.04701395776</v>
       </c>
       <c r="P20">
-        <v>0.15753873408</v>
+        <v>0.16668585024</v>
       </c>
       <c r="Q20">
-        <v>0.24053873408</v>
+        <v>0.24968585024</v>
       </c>
       <c r="R20">
         <v>0.2195121951219512</v>
       </c>
       <c r="S20">
-        <v>0.08821002977770936</v>
+        <v>0.08534197964826179</v>
       </c>
       <c r="T20">
         <v>0.7566562230317526</v>
       </c>
       <c r="U20">
-        <v>0.0276</v>
+        <v>0.0178</v>
       </c>
       <c r="V20">
         <v>0.22</v>
       </c>
       <c r="W20">
-        <v>0.021528</v>
+        <v>0.013884</v>
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>Aa2/AA</t>
         </is>
       </c>
       <c r="Y20">
-        <v>7.115333561992903</v>
+        <v>11.03276439949462</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>0.19</v>
       </c>
       <c r="B21">
-        <v>0.07612853057586519</v>
+        <v>0.07270858727316831</v>
       </c>
       <c r="C21">
-        <v>5.626340683861681</v>
+        <v>5.618312352597358</v>
       </c>
       <c r="D21">
-        <v>6.676460683861681</v>
+        <v>6.668432352597358</v>
       </c>
       <c r="E21">
         <v>1.12512</v>
@@ -2946,45 +2946,45 @@
         <v>0.235</v>
       </c>
       <c r="M21">
-        <v>0.034862112</v>
+        <v>0.0252624</v>
       </c>
       <c r="N21">
-        <v>0.200137888</v>
+        <v>0.2097376</v>
       </c>
       <c r="O21">
-        <v>0.04403033536</v>
+        <v>0.046142272</v>
       </c>
       <c r="P21">
-        <v>0.15610755264</v>
+        <v>0.163595328</v>
       </c>
       <c r="Q21">
-        <v>0.23910755264</v>
+        <v>0.246595328</v>
       </c>
       <c r="R21">
         <v>0.2345679012345679</v>
       </c>
       <c r="S21">
-        <v>0.08893606243933974</v>
+        <v>0.08610442873230656</v>
       </c>
       <c r="T21">
         <v>0.7642429777014218</v>
       </c>
       <c r="U21">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V21">
         <v>0.22</v>
       </c>
       <c r="W21">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y21">
-        <v>6.740842321888014</v>
+        <v>9.302362404205461</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0.2</v>
       </c>
       <c r="B22">
-        <v>0.0760497967340087</v>
+        <v>0.07262875123476195</v>
       </c>
       <c r="C22">
-        <v>5.568585417024929</v>
+        <v>5.560238980093273</v>
       </c>
       <c r="D22">
-        <v>6.685185417024929</v>
+        <v>6.676838980093273</v>
       </c>
       <c r="E22">
         <v>1.1916</v>
@@ -3028,45 +3028,45 @@
         <v>0.235</v>
       </c>
       <c r="M22">
-        <v>0.03669696</v>
+        <v>0.026592</v>
       </c>
       <c r="N22">
-        <v>0.19830304</v>
+        <v>0.208408</v>
       </c>
       <c r="O22">
-        <v>0.0436266688</v>
+        <v>0.04584976</v>
       </c>
       <c r="P22">
-        <v>0.1546763712</v>
+        <v>0.16255824</v>
       </c>
       <c r="Q22">
-        <v>0.2376763712</v>
+        <v>0.24555824</v>
       </c>
       <c r="R22">
         <v>0.25</v>
       </c>
       <c r="S22">
-        <v>0.08968024591751086</v>
+        <v>0.08688593904345245</v>
       </c>
       <c r="T22">
         <v>0.7720194012378326</v>
       </c>
       <c r="U22">
-        <v>0.0276</v>
+        <v>0.02</v>
       </c>
       <c r="V22">
         <v>0.22</v>
       </c>
       <c r="W22">
-        <v>0.021528</v>
+        <v>0.0156</v>
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>A2/A</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y22">
-        <v>6.403800205793613</v>
+        <v>8.837244283995187</v>
       </c>
       <c r="Z22">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0.21</v>
       </c>
       <c r="B23">
-        <v>0.07621676289215219</v>
+        <v>0.0725489151963556</v>
       </c>
       <c r="C23">
-        <v>5.483630416509758</v>
+        <v>5.502186830145609</v>
       </c>
       <c r="D23">
-        <v>6.666710416509757</v>
+        <v>6.685266830145609</v>
       </c>
       <c r="E23">
         <v>1.25808</v>
@@ -3110,45 +3110,45 @@
         <v>0.235</v>
       </c>
       <c r="M23">
-        <v>0.040625928</v>
+        <v>0.02792159999999999</v>
       </c>
       <c r="N23">
-        <v>0.194374072</v>
+        <v>0.2070784</v>
       </c>
       <c r="O23">
-        <v>0.04276229584</v>
+        <v>0.045557248</v>
       </c>
       <c r="P23">
-        <v>0.15161177616</v>
+        <v>0.161521152</v>
       </c>
       <c r="Q23">
-        <v>0.23461177616</v>
+        <v>0.244521152</v>
       </c>
       <c r="R23">
         <v>0.2658227848101266</v>
       </c>
       <c r="S23">
-        <v>0.09044326948373693</v>
+        <v>0.08768723442576658</v>
       </c>
       <c r="T23">
         <v>0.7799926962561778</v>
       </c>
       <c r="U23">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V23">
         <v>0.22</v>
       </c>
       <c r="W23">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y23">
-        <v>5.784483249219562</v>
+        <v>8.416423127614465</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -3159,13 +3159,13 @@
         <v>0.22</v>
       </c>
       <c r="B24">
-        <v>0.07614972905029568</v>
+        <v>0.07246907915794926</v>
       </c>
       <c r="C24">
-        <v>5.424555507117389</v>
+        <v>5.444155983220544</v>
       </c>
       <c r="D24">
-        <v>6.674115507117389</v>
+        <v>6.693715983220543</v>
       </c>
       <c r="E24">
         <v>1.32456</v>
@@ -3192,45 +3192,45 @@
         <v>0.235</v>
       </c>
       <c r="M24">
-        <v>0.042560496</v>
+        <v>0.02925119999999999</v>
       </c>
       <c r="N24">
-        <v>0.192439504</v>
+        <v>0.2057488</v>
       </c>
       <c r="O24">
-        <v>0.04233669088</v>
+        <v>0.045264736</v>
       </c>
       <c r="P24">
-        <v>0.15010281312</v>
+        <v>0.160484064</v>
       </c>
       <c r="Q24">
-        <v>0.23310281312</v>
+        <v>0.243484064</v>
       </c>
       <c r="R24">
         <v>0.282051282051282</v>
       </c>
       <c r="S24">
-        <v>0.09122585775678932</v>
+        <v>0.08850907584352467</v>
       </c>
       <c r="T24">
         <v>0.788170434736532</v>
       </c>
       <c r="U24">
-        <v>0.0291</v>
+        <v>0.02</v>
       </c>
       <c r="V24">
         <v>0.22</v>
       </c>
       <c r="W24">
-        <v>0.022698</v>
+        <v>0.0156</v>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A1/A+</t>
         </is>
       </c>
       <c r="Y24">
-        <v>5.521552192436855</v>
+        <v>8.033858439995626</v>
       </c>
       <c r="Z24">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0.23</v>
       </c>
       <c r="B25">
-        <v>0.07608269520843916</v>
+        <v>0.0725865831195429</v>
       </c>
       <c r="C25">
-        <v>5.365497066519956</v>
+        <v>5.365247785851674</v>
       </c>
       <c r="D25">
-        <v>6.681537066519956</v>
+        <v>6.681287785851674</v>
       </c>
       <c r="E25">
         <v>1.39104</v>
@@ -3274,45 +3274,45 @@
         <v>0.235</v>
       </c>
       <c r="M25">
-        <v>0.044495064</v>
+        <v>0.032262744</v>
       </c>
       <c r="N25">
-        <v>0.190504936</v>
+        <v>0.202737256</v>
       </c>
       <c r="O25">
-        <v>0.04191108592</v>
+        <v>0.04460219632</v>
       </c>
       <c r="P25">
-        <v>0.14859385008</v>
+        <v>0.15813505968</v>
       </c>
       <c r="Q25">
-        <v>0.23159385008</v>
+        <v>0.24113505968</v>
       </c>
       <c r="R25">
         <v>0.2987012987012987</v>
       </c>
       <c r="S25">
-        <v>0.09202877299797294</v>
+        <v>0.08935226379161415</v>
       </c>
       <c r="T25">
         <v>0.7965605820085837</v>
       </c>
       <c r="U25">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V25">
         <v>0.22</v>
       </c>
       <c r="W25">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y25">
-        <v>5.281484705809166</v>
+        <v>7.283943362040127</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0.24</v>
       </c>
       <c r="B26">
-        <v>0.07601566136658267</v>
+        <v>0.07251532708113653</v>
       </c>
       <c r="C26">
-        <v>5.306455149718092</v>
+        <v>5.306298904032262</v>
       </c>
       <c r="D26">
-        <v>6.688975149718091</v>
+        <v>6.688818904032262</v>
       </c>
       <c r="E26">
         <v>1.45752</v>
@@ -3356,45 +3356,45 @@
         <v>0.235</v>
       </c>
       <c r="M26">
-        <v>0.046429632</v>
+        <v>0.03366547199999999</v>
       </c>
       <c r="N26">
-        <v>0.188570368</v>
+        <v>0.201334528</v>
       </c>
       <c r="O26">
-        <v>0.04148548095999999</v>
+        <v>0.04429359616</v>
       </c>
       <c r="P26">
-        <v>0.14708488704</v>
+        <v>0.15704093184</v>
       </c>
       <c r="Q26">
-        <v>0.23008488704</v>
+        <v>0.24004093184</v>
       </c>
       <c r="R26">
         <v>0.3157894736842105</v>
       </c>
       <c r="S26">
-        <v>0.09285281758760877</v>
+        <v>0.09021764089623228</v>
       </c>
       <c r="T26">
         <v>0.8051715226298999</v>
       </c>
       <c r="U26">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V26">
         <v>0.22</v>
       </c>
       <c r="W26">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y26">
-        <v>5.061422843067117</v>
+        <v>6.980445721955124</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0.25</v>
       </c>
       <c r="B27">
-        <v>0.07594862752472617</v>
+        <v>0.07244407104273018</v>
       </c>
       <c r="C27">
-        <v>5.247429811957623</v>
+        <v>5.247367019458592</v>
       </c>
       <c r="D27">
-        <v>6.696429811957623</v>
+        <v>6.696367019458592</v>
       </c>
       <c r="E27">
         <v>1.524</v>
@@ -3438,45 +3438,45 @@
         <v>0.235</v>
       </c>
       <c r="M27">
-        <v>0.0483642</v>
+        <v>0.0350682</v>
       </c>
       <c r="N27">
-        <v>0.1866358</v>
+        <v>0.1999318</v>
       </c>
       <c r="O27">
-        <v>0.041059876</v>
+        <v>0.043984996</v>
       </c>
       <c r="P27">
-        <v>0.145575924</v>
+        <v>0.155946804</v>
       </c>
       <c r="Q27">
-        <v>0.228575924</v>
+        <v>0.238946804</v>
       </c>
       <c r="R27">
         <v>0.3333333333333333</v>
       </c>
       <c r="S27">
-        <v>0.09369883669963489</v>
+        <v>0.09110609472364024</v>
       </c>
       <c r="T27">
         <v>0.8140120883344512</v>
       </c>
       <c r="U27">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V27">
         <v>0.22</v>
       </c>
       <c r="W27">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y27">
-        <v>4.858965929344432</v>
+        <v>6.701227893076918</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>0.26</v>
       </c>
       <c r="B28">
-        <v>0.07588159368286966</v>
+        <v>0.07237281500432384</v>
       </c>
       <c r="C28">
-        <v>5.188421108730931</v>
+        <v>5.188452189738192</v>
       </c>
       <c r="D28">
-        <v>6.703901108730931</v>
+        <v>6.703932189738192</v>
       </c>
       <c r="E28">
         <v>1.59048</v>
@@ -3520,45 +3520,45 @@
         <v>0.235</v>
       </c>
       <c r="M28">
-        <v>0.050298768</v>
+        <v>0.036470928</v>
       </c>
       <c r="N28">
-        <v>0.184701232</v>
+        <v>0.198529072</v>
       </c>
       <c r="O28">
-        <v>0.04063427104</v>
+        <v>0.04367639583999999</v>
       </c>
       <c r="P28">
-        <v>0.14406696096</v>
+        <v>0.15485267616</v>
       </c>
       <c r="Q28">
-        <v>0.22706696096</v>
+        <v>0.23785267616</v>
       </c>
       <c r="R28">
         <v>0.3513513513513514</v>
       </c>
       <c r="S28">
-        <v>0.09456772119306711</v>
+        <v>0.09201856081665383</v>
       </c>
       <c r="T28">
         <v>0.8230915882472336</v>
       </c>
       <c r="U28">
-        <v>0.0291</v>
+        <v>0.0211</v>
       </c>
       <c r="V28">
         <v>0.22</v>
       </c>
       <c r="W28">
-        <v>0.022698</v>
+        <v>0.016458</v>
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>A3/A-</t>
+          <t>A2/A</t>
         </is>
       </c>
       <c r="Y28">
-        <v>4.672082624369646</v>
+        <v>6.443488358727806</v>
       </c>
       <c r="Z28">
         <v>0</v>
@@ -3569,13 +3569,13 @@
         <v>0.27</v>
       </c>
       <c r="B29">
-        <v>0.07884719984101314</v>
+        <v>0.07261745896591747</v>
       </c>
       <c r="C29">
-        <v>4.806603862005115</v>
+        <v>5.096069752149289</v>
       </c>
       <c r="D29">
-        <v>6.388563862005115</v>
+        <v>6.678029752149289</v>
       </c>
       <c r="E29">
         <v>1.65696</v>
@@ -3602,45 +3602,45 @@
         <v>0.235</v>
       </c>
       <c r="M29">
-        <v>0.07808076</v>
+        <v>0.040566096</v>
       </c>
       <c r="N29">
-        <v>0.15691924</v>
+        <v>0.194433904</v>
       </c>
       <c r="O29">
-        <v>0.0345222328</v>
+        <v>0.04277545888</v>
       </c>
       <c r="P29">
-        <v>0.1223970072</v>
+        <v>0.15165844512</v>
       </c>
       <c r="Q29">
-        <v>0.2053970072</v>
+        <v>0.23465844512</v>
       </c>
       <c r="R29">
         <v>0.3698630136986302</v>
       </c>
       <c r="S29">
-        <v>0.09546041074111389</v>
+        <v>0.09295602598070886</v>
       </c>
       <c r="T29">
         <v>0.8324198415822839</v>
       </c>
       <c r="U29">
-        <v>0.0435</v>
+        <v>0.0226</v>
       </c>
       <c r="V29">
         <v>0.22</v>
       </c>
       <c r="W29">
-        <v>0.03393</v>
+        <v>0.017628</v>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>Ba2/BB</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y29">
-        <v>3.009704311279757</v>
+        <v>5.79301493542785</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -3651,13 +3651,13 @@
         <v>0.28</v>
       </c>
       <c r="B30">
-        <v>0.08581576599915663</v>
+        <v>0.0725579029275111</v>
       </c>
       <c r="C30">
-        <v>4.104279501915652</v>
+        <v>5.035876982329108</v>
       </c>
       <c r="D30">
-        <v>5.752719501915652</v>
+        <v>6.684316982329108</v>
       </c>
       <c r="E30">
         <v>1.72344</v>
@@ -3684,45 +3684,45 @@
         <v>0.235</v>
       </c>
       <c r="M30">
-        <v>0.139980288</v>
+        <v>0.042068544</v>
       </c>
       <c r="N30">
-        <v>0.09501971199999998</v>
+        <v>0.192931456</v>
       </c>
       <c r="O30">
-        <v>0.02090433664</v>
+        <v>0.04244492032</v>
       </c>
       <c r="P30">
-        <v>0.07411537535999999</v>
+        <v>0.15048653568</v>
       </c>
       <c r="Q30">
-        <v>0.15711537536</v>
+        <v>0.23348653568</v>
       </c>
       <c r="R30">
         <v>0.388888888888889</v>
       </c>
       <c r="S30">
-        <v>0.09637789722105089</v>
+        <v>0.09391953184376543</v>
       </c>
       <c r="T30">
         <v>0.8420072130655302</v>
       </c>
       <c r="U30">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V30">
         <v>0.22</v>
       </c>
       <c r="W30">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y30">
-        <v>1.678807804710332</v>
+        <v>5.586121544876856</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3733,13 +3733,13 @@
         <v>0.29</v>
       </c>
       <c r="B31">
-        <v>0.08610831215730012</v>
+        <v>0.07249834688910474</v>
       </c>
       <c r="C31">
-        <v>4.013862986622875</v>
+        <v>4.975696062265779</v>
       </c>
       <c r="D31">
-        <v>5.728782986622875</v>
+        <v>6.690616062265779</v>
       </c>
       <c r="E31">
         <v>1.78992</v>
@@ -3766,45 +3766,45 @@
         <v>0.235</v>
       </c>
       <c r="M31">
-        <v>0.144979584</v>
+        <v>0.043570992</v>
       </c>
       <c r="N31">
-        <v>0.09002041599999999</v>
+        <v>0.191429008</v>
       </c>
       <c r="O31">
-        <v>0.01980449152</v>
+        <v>0.04211438176</v>
       </c>
       <c r="P31">
-        <v>0.07021592448</v>
+        <v>0.14931462624</v>
       </c>
       <c r="Q31">
-        <v>0.15321592448</v>
+        <v>0.23231462624</v>
       </c>
       <c r="R31">
         <v>0.4084507042253521</v>
       </c>
       <c r="S31">
-        <v>0.09732122839056356</v>
+        <v>0.09491017871704895</v>
       </c>
       <c r="T31">
         <v>0.8518646513511213</v>
       </c>
       <c r="U31">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V31">
         <v>0.22</v>
       </c>
       <c r="W31">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y31">
-        <v>1.620917880409976</v>
+        <v>5.393496664019033</v>
       </c>
       <c r="Z31">
         <v>0</v>
@@ -3815,13 +3815,13 @@
         <v>0.3</v>
       </c>
       <c r="B32">
-        <v>0.08640085831544361</v>
+        <v>0.07243879085069839</v>
       </c>
       <c r="C32">
-        <v>3.923644841031412</v>
+        <v>4.915527025491359</v>
       </c>
       <c r="D32">
-        <v>5.705044841031412</v>
+        <v>6.696927025491359</v>
       </c>
       <c r="E32">
         <v>1.8564</v>
@@ -3848,45 +3848,45 @@
         <v>0.235</v>
       </c>
       <c r="M32">
-        <v>0.14997888</v>
+        <v>0.04507343999999999</v>
       </c>
       <c r="N32">
-        <v>0.08502112000000001</v>
+        <v>0.18992656</v>
       </c>
       <c r="O32">
-        <v>0.0187046464</v>
+        <v>0.0417838432</v>
       </c>
       <c r="P32">
-        <v>0.06631647360000001</v>
+        <v>0.1481427168</v>
       </c>
       <c r="Q32">
-        <v>0.1493164736</v>
+        <v>0.2311427168</v>
       </c>
       <c r="R32">
         <v>0.4285714285714286</v>
       </c>
       <c r="S32">
-        <v>0.09829151187920518</v>
+        <v>0.095929129786712</v>
       </c>
       <c r="T32">
         <v>0.8620037307305866</v>
       </c>
       <c r="U32">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V32">
         <v>0.22</v>
       </c>
       <c r="W32">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y32">
-        <v>1.56688728439631</v>
+        <v>5.213713441885067</v>
       </c>
       <c r="Z32">
         <v>0</v>
@@ -3897,13 +3897,13 @@
         <v>0.31</v>
       </c>
       <c r="B33">
-        <v>0.08669340447358712</v>
+        <v>0.07237923481229204</v>
       </c>
       <c r="C33">
-        <v>3.833622609385561</v>
+        <v>4.855369905664551</v>
       </c>
       <c r="D33">
-        <v>5.681502609385561</v>
+        <v>6.703249905664551</v>
       </c>
       <c r="E33">
         <v>1.92288</v>
@@ -3930,45 +3930,45 @@
         <v>0.235</v>
       </c>
       <c r="M33">
-        <v>0.154978176</v>
+        <v>0.046575888</v>
       </c>
       <c r="N33">
-        <v>0.08002182399999996</v>
+        <v>0.188424112</v>
       </c>
       <c r="O33">
-        <v>0.01760480127999999</v>
+        <v>0.04145330463999999</v>
       </c>
       <c r="P33">
-        <v>0.06241702271999997</v>
+        <v>0.14697080736</v>
       </c>
       <c r="Q33">
-        <v>0.14541702272</v>
+        <v>0.22997080736</v>
       </c>
       <c r="R33">
         <v>0.4492753623188406</v>
       </c>
       <c r="S33">
-        <v>0.09928991952693786</v>
+        <v>0.09697761566998847</v>
       </c>
       <c r="T33">
         <v>0.8724366964688769</v>
       </c>
       <c r="U33">
-        <v>0.0752</v>
+        <v>0.0226</v>
       </c>
       <c r="V33">
         <v>0.22</v>
       </c>
       <c r="W33">
-        <v>0.05865600000000001</v>
+        <v>0.017628</v>
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>B3/B-</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y33">
-        <v>1.516342533286751</v>
+        <v>5.045529137308128</v>
       </c>
       <c r="Z33">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0.32</v>
       </c>
       <c r="B34">
-        <v>0.09758897116748924</v>
+        <v>0.07231967877388569</v>
       </c>
       <c r="C34">
-        <v>3.010277842430948</v>
+        <v>4.795224736571281</v>
       </c>
       <c r="D34">
-        <v>4.924637842430948</v>
+        <v>6.709584736571282</v>
       </c>
       <c r="E34">
         <v>1.98936</v>
@@ -4012,45 +4012,45 @@
         <v>0.235</v>
       </c>
       <c r="M34">
-        <v>0.24571008</v>
+        <v>0.04807833599999999</v>
       </c>
       <c r="N34">
-        <v>-0.01071007999999998</v>
+        <v>0.186921664</v>
       </c>
       <c r="O34">
-        <v>-0.002356217599999996</v>
+        <v>0.04112276608</v>
       </c>
       <c r="P34">
-        <v>-0.008353862399999986</v>
+        <v>0.14579889792</v>
       </c>
       <c r="Q34">
-        <v>0.07464613760000004</v>
+        <v>0.22879889792</v>
       </c>
       <c r="R34">
         <v>0.4705882352941177</v>
       </c>
       <c r="S34">
-        <v>0.1005966854961838</v>
+        <v>0.09805693937336131</v>
       </c>
       <c r="T34">
-        <v>0.8860918849242817</v>
+        <v>0.8831765141406464</v>
       </c>
       <c r="U34">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V34">
-        <v>0.2104105781903616</v>
+        <v>0.22</v>
       </c>
       <c r="W34">
-        <v>0.09119757821901323</v>
+        <v>0.017628</v>
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y34">
-        <v>0.9564117190470982</v>
+        <v>4.887856351767249</v>
       </c>
       <c r="Z34">
         <v>0</v>
@@ -4061,13 +4061,13 @@
         <v>0.33</v>
       </c>
       <c r="B35">
-        <v>0.09858597116748925</v>
+        <v>0.07226012273547933</v>
       </c>
       <c r="C35">
-        <v>2.8844899203318</v>
+        <v>4.735091552125325</v>
       </c>
       <c r="D35">
-        <v>4.8653299203318</v>
+        <v>6.715931552125324</v>
       </c>
       <c r="E35">
         <v>2.05584</v>
@@ -4094,45 +4094,45 @@
         <v>0.235</v>
       </c>
       <c r="M35">
-        <v>0.25338852</v>
+        <v>0.04958078399999999</v>
       </c>
       <c r="N35">
-        <v>-0.01838851999999996</v>
+        <v>0.185419216</v>
       </c>
       <c r="O35">
-        <v>-0.004045474399999992</v>
+        <v>0.04079222752</v>
       </c>
       <c r="P35">
-        <v>-0.01434304559999997</v>
+        <v>0.14462698848</v>
       </c>
       <c r="Q35">
-        <v>0.06865695440000005</v>
+        <v>0.22762698848</v>
       </c>
       <c r="R35">
         <v>0.4925373134328359</v>
       </c>
       <c r="S35">
-        <v>0.1018623076677687</v>
+        <v>0.09916848169474528</v>
       </c>
       <c r="T35">
-        <v>0.8993171369380769</v>
+        <v>0.8942369233847074</v>
       </c>
       <c r="U35">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V35">
-        <v>0.2040345000633809</v>
+        <v>0.22</v>
       </c>
       <c r="W35">
-        <v>0.0919340152426795</v>
+        <v>0.017628</v>
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y35">
-        <v>0.9274295457426407</v>
+        <v>4.739739492622788</v>
       </c>
       <c r="Z35">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0.34</v>
       </c>
       <c r="B36">
-        <v>0.09958297116748924</v>
+        <v>0.07220056669707296</v>
       </c>
       <c r="C36">
-        <v>2.760113502205571</v>
+        <v>4.674970386368889</v>
       </c>
       <c r="D36">
-        <v>4.807433502205571</v>
+        <v>6.722290386368889</v>
       </c>
       <c r="E36">
         <v>2.12232</v>
@@ -4176,45 +4176,45 @@
         <v>0.235</v>
       </c>
       <c r="M36">
-        <v>0.26106696</v>
+        <v>0.051083232</v>
       </c>
       <c r="N36">
-        <v>-0.02606696000000003</v>
+        <v>0.183916768</v>
       </c>
       <c r="O36">
-        <v>-0.005734731200000006</v>
+        <v>0.04046168896</v>
       </c>
       <c r="P36">
-        <v>-0.02033222880000002</v>
+        <v>0.14345507904</v>
       </c>
       <c r="Q36">
-        <v>0.0626677712</v>
+        <v>0.22645507904</v>
       </c>
       <c r="R36">
         <v>0.5151515151515152</v>
       </c>
       <c r="S36">
-        <v>0.1031662820263712</v>
+        <v>0.1003137071167772</v>
       </c>
       <c r="T36">
-        <v>0.9129431541644115</v>
+        <v>0.9056324965452551</v>
       </c>
       <c r="U36">
-        <v>0.1155</v>
+        <v>0.0226</v>
       </c>
       <c r="V36">
-        <v>0.1980334853556344</v>
+        <v>0.22</v>
       </c>
       <c r="W36">
-        <v>0.09262713244142422</v>
+        <v>0.017628</v>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Ca2/CC</t>
+          <t>A3/A-</t>
         </is>
       </c>
       <c r="Y36">
-        <v>0.9001522061619746</v>
+        <v>4.600335389898587</v>
       </c>
       <c r="Z36">
         <v>0</v>
@@ -4225,13 +4225,13 @@
         <v>0.35</v>
       </c>
       <c r="B37">
-        <v>0.1005799711674892</v>
+        <v>0.0967114879909363</v>
       </c>
       <c r="C37">
-        <v>2.637098790814482</v>
+        <v>2.723503248386899</v>
       </c>
       <c r="D37">
-        <v>4.750898790814482</v>
+        <v>4.837303248386899</v>
       </c>
       <c r="E37">
         <v>2.1888</v>
@@ -4258,37 +4258,37 @@
         <v>0.235</v>
       </c>
       <c r="M37">
-        <v>0.2687454</v>
+        <v>0.2536212</v>
       </c>
       <c r="N37">
-        <v>-0.03374539999999998</v>
+        <v>-0.0186212</v>
       </c>
       <c r="O37">
-        <v>-0.007423987999999996</v>
+        <v>-0.004096664000000001</v>
       </c>
       <c r="P37">
-        <v>-0.02632141199999999</v>
+        <v>-0.014524536</v>
       </c>
       <c r="Q37">
-        <v>0.05667858800000003</v>
+        <v>0.06847546400000001</v>
       </c>
       <c r="R37">
         <v>0.5384615384615385</v>
       </c>
       <c r="S37">
-        <v>0.1045103786729308</v>
+        <v>0.1020588660936186</v>
       </c>
       <c r="T37">
-        <v>0.9269884334592485</v>
+        <v>0.9229977125235178</v>
       </c>
       <c r="U37">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V37">
-        <v>0.1923753857740449</v>
+        <v>0.2038473124486439</v>
       </c>
       <c r="W37">
-        <v>0.09328064294309781</v>
+        <v>0.08678064294309783</v>
       </c>
       <c r="X37" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="Y37">
-        <v>0.8744335717002041</v>
+        <v>0.9265786929483812</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4307,13 +4307,13 @@
         <v>0.36</v>
       </c>
       <c r="B38">
-        <v>0.1015769711674892</v>
+        <v>0.0977084879909363</v>
       </c>
       <c r="C38">
-        <v>2.515398304127056</v>
+        <v>2.602472023179472</v>
       </c>
       <c r="D38">
-        <v>4.695678304127056</v>
+        <v>4.782752023179472</v>
       </c>
       <c r="E38">
         <v>2.25528</v>
@@ -4340,37 +4340,37 @@
         <v>0.235</v>
       </c>
       <c r="M38">
-        <v>0.27642384</v>
+        <v>0.26086752</v>
       </c>
       <c r="N38">
-        <v>-0.04142383999999999</v>
+        <v>-0.02586751999999998</v>
       </c>
       <c r="O38">
-        <v>-0.009113244799999998</v>
+        <v>-0.005690854399999995</v>
       </c>
       <c r="P38">
-        <v>-0.03231059519999999</v>
+        <v>-0.02017666559999998</v>
       </c>
       <c r="Q38">
-        <v>0.05068940480000002</v>
+        <v>0.06282333440000004</v>
       </c>
       <c r="R38">
         <v>0.5625</v>
       </c>
       <c r="S38">
-        <v>0.1058964783396953</v>
+        <v>0.1035082233763314</v>
       </c>
       <c r="T38">
-        <v>0.9414726277320492</v>
+        <v>0.9374195517816977</v>
       </c>
       <c r="U38">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V38">
-        <v>0.1870316250580992</v>
+        <v>0.1981848871028482</v>
       </c>
       <c r="W38">
-        <v>0.09389784730578954</v>
+        <v>0.08739784730578955</v>
       </c>
       <c r="X38" t="inlineStr">
         <is>
@@ -4378,7 +4378,7 @@
         </is>
       </c>
       <c r="Y38">
-        <v>0.8501437502640872</v>
+        <v>0.9008403959220375</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -4389,13 +4389,13 @@
         <v>0.37</v>
       </c>
       <c r="B39">
-        <v>0.1025739711674892</v>
+        <v>0.09870548799093629</v>
       </c>
       <c r="C39">
-        <v>2.394966742313912</v>
+        <v>2.482657447481018</v>
       </c>
       <c r="D39">
-        <v>4.641726742313912</v>
+        <v>4.729417447481017</v>
       </c>
       <c r="E39">
         <v>2.32176</v>
@@ -4422,37 +4422,37 @@
         <v>0.235</v>
       </c>
       <c r="M39">
-        <v>0.2841022799999999</v>
+        <v>0.26811384</v>
       </c>
       <c r="N39">
-        <v>-0.04910227999999994</v>
+        <v>-0.03311384000000001</v>
       </c>
       <c r="O39">
-        <v>-0.01080250159999999</v>
+        <v>-0.007285044800000001</v>
       </c>
       <c r="P39">
-        <v>-0.03829977839999996</v>
+        <v>-0.0258287952</v>
       </c>
       <c r="Q39">
-        <v>0.04470022160000006</v>
+        <v>0.05717120480000001</v>
       </c>
       <c r="R39">
         <v>0.5873015873015873</v>
       </c>
       <c r="S39">
-        <v>0.1073265811704841</v>
+        <v>0.1050035920013525</v>
       </c>
       <c r="T39">
-        <v>0.95641663769605</v>
+        <v>0.9522992272068039</v>
       </c>
       <c r="U39">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V39">
-        <v>0.1819767162727452</v>
+        <v>0.1928285388027712</v>
       </c>
       <c r="W39">
-        <v>0.09448168927049791</v>
+        <v>0.08798168927049793</v>
       </c>
       <c r="X39" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="Y39">
-        <v>0.8271668921488418</v>
+        <v>0.8764933581944148</v>
       </c>
       <c r="Z39">
         <v>0</v>
@@ -4471,13 +4471,13 @@
         <v>0.38</v>
       </c>
       <c r="B40">
-        <v>0.1035709711674893</v>
+        <v>0.0997024879909363</v>
       </c>
       <c r="C40">
-        <v>2.275760863808409</v>
+        <v>2.364019267989194</v>
       </c>
       <c r="D40">
-        <v>4.589000863808409</v>
+        <v>4.677259267989194</v>
       </c>
       <c r="E40">
         <v>2.38824</v>
@@ -4504,37 +4504,37 @@
         <v>0.235</v>
       </c>
       <c r="M40">
-        <v>0.29178072</v>
+        <v>0.27536016</v>
       </c>
       <c r="N40">
-        <v>-0.05678072000000001</v>
+        <v>-0.04036016000000003</v>
       </c>
       <c r="O40">
-        <v>-0.0124917584</v>
+        <v>-0.008879235200000007</v>
       </c>
       <c r="P40">
-        <v>-0.0442889616</v>
+        <v>-0.03148092480000002</v>
       </c>
       <c r="Q40">
-        <v>0.03871103840000002</v>
+        <v>0.05151907519999999</v>
       </c>
       <c r="R40">
         <v>0.6129032258064516</v>
       </c>
       <c r="S40">
-        <v>0.1088028163506533</v>
+        <v>0.1065471983239549</v>
       </c>
       <c r="T40">
-        <v>0.9718427124975992</v>
+        <v>0.9676588921617525</v>
       </c>
       <c r="U40">
-        <v>0.1155</v>
+        <v>0.109</v>
       </c>
       <c r="V40">
-        <v>0.1771878553181992</v>
+        <v>0.1877541035711193</v>
       </c>
       <c r="W40">
-        <v>0.09503480271074798</v>
+        <v>0.088534802710748</v>
       </c>
       <c r="X40" t="inlineStr">
         <is>
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="Y40">
-        <v>0.8053993423554511</v>
+        <v>0.8534277435050879</v>
       </c>
       <c r="Z40">
         <v>0</v>
@@ -4553,13 +4553,13 @@
         <v>0.39</v>
       </c>
       <c r="B41">
-        <v>0.1176212956114735</v>
+        <v>0.1006994879909363</v>
       </c>
       <c r="C41">
-        <v>1.576044460529263</v>
+        <v>2.246518987759094</v>
       </c>
       <c r="D41">
-        <v>3.955764460529263</v>
+        <v>4.626238987759094</v>
       </c>
       <c r="E41">
         <v>2.45472</v>
@@ -4586,45 +4586,45 @@
         <v>0.235</v>
       </c>
       <c r="M41">
-        <v>0.380352024</v>
+        <v>0.28260648</v>
       </c>
       <c r="N41">
-        <v>-0.145352024</v>
+        <v>-0.04760648000000001</v>
       </c>
       <c r="O41">
-        <v>-0.03197744528</v>
+        <v>-0.0104734256</v>
       </c>
       <c r="P41">
-        <v>-0.11337457872</v>
+        <v>-0.0371330544</v>
       </c>
       <c r="Q41">
-        <v>-0.03037457871999996</v>
+        <v>0.04586694560000001</v>
       </c>
       <c r="R41">
         <v>0.639344262295082</v>
       </c>
       <c r="S41">
-        <v>0.1117788042317857</v>
+        <v>0.1081414146899214</v>
       </c>
       <c r="T41">
-        <v>1.002940610908065</v>
+        <v>0.9835221526889943</v>
       </c>
       <c r="U41">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V41">
-        <v>0.1359267119346261</v>
+        <v>0.1829398957872445</v>
       </c>
       <c r="W41">
-        <v>0.1267595513591903</v>
+        <v>0.08905955135919034</v>
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y41">
-        <v>0.6178486906119369</v>
+        <v>0.8315449808511114</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -4635,13 +4635,13 @@
         <v>0.4</v>
       </c>
       <c r="B42">
-        <v>0.1189302956114735</v>
+        <v>0.1016964879909363</v>
       </c>
       <c r="C42">
-        <v>1.459355201958528</v>
+        <v>2.13011977144377</v>
       </c>
       <c r="D42">
-        <v>3.905555201958528</v>
+        <v>4.57631977144377</v>
       </c>
       <c r="E42">
         <v>2.5212</v>
@@ -4668,45 +4668,45 @@
         <v>0.235</v>
       </c>
       <c r="M42">
-        <v>0.39010464</v>
+        <v>0.2898528</v>
       </c>
       <c r="N42">
-        <v>-0.15510464</v>
+        <v>-0.05485280000000003</v>
       </c>
       <c r="O42">
-        <v>-0.0341230208</v>
+        <v>-0.01206761600000001</v>
       </c>
       <c r="P42">
-        <v>-0.1209816192</v>
+        <v>-0.04278518400000002</v>
       </c>
       <c r="Q42">
-        <v>-0.0379816192</v>
+        <v>0.04021481599999999</v>
       </c>
       <c r="R42">
         <v>0.6666666666666667</v>
       </c>
       <c r="S42">
-        <v>0.1133784509689822</v>
+        <v>0.1097887716014201</v>
       </c>
       <c r="T42">
-        <v>1.019656287756532</v>
+        <v>0.9999141885671442</v>
       </c>
       <c r="U42">
-        <v>0.1467</v>
+        <v>0.109</v>
       </c>
       <c r="V42">
-        <v>0.1325285441362604</v>
+        <v>0.1783663983925634</v>
       </c>
       <c r="W42">
-        <v>0.1272580625752106</v>
+        <v>0.0895580625752106</v>
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>C2/C</t>
+          <t>Ca2/CC</t>
         </is>
       </c>
       <c r="Y42">
-        <v>0.6024024733466384</v>
+        <v>0.8107563563298336</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4717,13 +4717,13 @@
         <v>0.41</v>
       </c>
       <c r="B43">
-        <v>0.1202392956114735</v>
+        <v>0.1165163362228304</v>
       </c>
       <c r="C43">
-        <v>1.343924548572447</v>
+        <v>1.431083513109589</v>
       </c>
       <c r="D43">
-        <v>3.856604548572447</v>
+        <v>3.943763513109589</v>
       </c>
       <c r="E43">
         <v>2.58768</v>
@@ -4750,37 +4750,37 @@
         <v>0.235</v>
       </c>
       <c r="M43">
-        <v>0.399857256</v>
+        <v>0.382140336</v>
       </c>
       <c r="N43">
-        <v>-0.164857256</v>
+        <v>-0.147140336</v>
       </c>
       <c r="O43">
-        <v>-0.03626859632</v>
+        <v>-0.03237087391999999</v>
       </c>
       <c r="P43">
-        <v>-0.12858865968</v>
+        <v>-0.11476946208</v>
       </c>
       <c r="Q43">
-        <v>-0.04558865967999998</v>
+        <v>-0.03176946207999998</v>
       </c>
       <c r="R43">
         <v>0.6949152542372882</v>
       </c>
       <c r="S43">
-        <v>0.1150323230193039</v>
+        <v>0.1132391715131291</v>
       </c>
       <c r="T43">
-        <v>1.036938597718507</v>
+        <v>1.034247415782153</v>
       </c>
       <c r="U43">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V43">
-        <v>0.1292961406207419</v>
+        <v>0.1352906121901772</v>
       </c>
       <c r="W43">
-        <v>0.1277322561709372</v>
+        <v>0.1212322561709372</v>
       </c>
       <c r="X43" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="Y43">
-        <v>0.5877097300942814</v>
+        <v>0.614957328137169</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0.42</v>
       </c>
       <c r="B44">
-        <v>0.1215482956114735</v>
+        <v>0.1178253362228304</v>
       </c>
       <c r="C44">
-        <v>1.229705761626612</v>
+        <v>1.317035022484868</v>
       </c>
       <c r="D44">
-        <v>3.808865761626612</v>
+        <v>3.896195022484868</v>
       </c>
       <c r="E44">
         <v>2.65416</v>
@@ -4832,37 +4832,37 @@
         <v>0.235</v>
       </c>
       <c r="M44">
-        <v>0.409609872</v>
+        <v>0.391460832</v>
       </c>
       <c r="N44">
-        <v>-0.174609872</v>
+        <v>-0.156460832</v>
       </c>
       <c r="O44">
-        <v>-0.03841417184</v>
+        <v>-0.03442138304</v>
       </c>
       <c r="P44">
-        <v>-0.13619570016</v>
+        <v>-0.12203944896</v>
       </c>
       <c r="Q44">
-        <v>-0.05319570015999997</v>
+        <v>-0.03903944895999997</v>
       </c>
       <c r="R44">
         <v>0.7241379310344827</v>
       </c>
       <c r="S44">
-        <v>0.1167432251403264</v>
+        <v>0.11503122619439</v>
       </c>
       <c r="T44">
-        <v>1.054816849403309</v>
+        <v>1.052079267778397</v>
       </c>
       <c r="U44">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V44">
-        <v>0.1262176610821528</v>
+        <v>0.1320694071380301</v>
       </c>
       <c r="W44">
-        <v>0.1281838691192482</v>
+        <v>0.1216838691192482</v>
       </c>
       <c r="X44" t="inlineStr">
         <is>
@@ -4870,7 +4870,7 @@
         </is>
       </c>
       <c r="Y44">
-        <v>0.5737166412825128</v>
+        <v>0.6003154869910459</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4881,13 +4881,13 @@
         <v>0.43</v>
       </c>
       <c r="B45">
-        <v>0.1228572956114735</v>
+        <v>0.1191343362228304</v>
       </c>
       <c r="C45">
-        <v>1.116654388293369</v>
+        <v>1.204120369535489</v>
       </c>
       <c r="D45">
-        <v>3.762294388293369</v>
+        <v>3.849760369535488</v>
       </c>
       <c r="E45">
         <v>2.72064</v>
@@ -4914,37 +4914,37 @@
         <v>0.235</v>
       </c>
       <c r="M45">
-        <v>0.419362488</v>
+        <v>0.4007813279999999</v>
       </c>
       <c r="N45">
-        <v>-0.184362488</v>
+        <v>-0.165781328</v>
       </c>
       <c r="O45">
-        <v>-0.04055974736</v>
+        <v>-0.03647189215999999</v>
       </c>
       <c r="P45">
-        <v>-0.14380274064</v>
+        <v>-0.12930943584</v>
       </c>
       <c r="Q45">
-        <v>-0.06080274063999996</v>
+        <v>-0.04630943583999994</v>
       </c>
       <c r="R45">
         <v>0.7543859649122806</v>
       </c>
       <c r="S45">
-        <v>0.118514158914718</v>
+        <v>0.116886159987274</v>
       </c>
       <c r="T45">
-        <v>1.073322408164771</v>
+        <v>1.070536798792053</v>
       </c>
       <c r="U45">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V45">
-        <v>0.1232823666383818</v>
+        <v>0.1289980255766806</v>
       </c>
       <c r="W45">
-        <v>0.1286144768141494</v>
+        <v>0.1221144768141494</v>
       </c>
       <c r="X45" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="Y45">
-        <v>0.5603743938108265</v>
+        <v>0.5863546617121844</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4963,13 +4963,13 @@
         <v>0.44</v>
       </c>
       <c r="B46">
-        <v>0.1241662956114735</v>
+        <v>0.1204433362228304</v>
       </c>
       <c r="C46">
-        <v>1.004728123599288</v>
+        <v>1.092299492655396</v>
       </c>
       <c r="D46">
-        <v>3.716848123599287</v>
+        <v>3.804419492655396</v>
       </c>
       <c r="E46">
         <v>2.78712</v>
@@ -4996,37 +4996,37 @@
         <v>0.235</v>
       </c>
       <c r="M46">
-        <v>0.429115104</v>
+        <v>0.4101018239999999</v>
       </c>
       <c r="N46">
-        <v>-0.194115104</v>
+        <v>-0.175101824</v>
       </c>
       <c r="O46">
-        <v>-0.04270532287999999</v>
+        <v>-0.03852240127999999</v>
       </c>
       <c r="P46">
-        <v>-0.15140978112</v>
+        <v>-0.13657942272</v>
       </c>
       <c r="Q46">
-        <v>-0.06840978111999996</v>
+        <v>-0.05357942271999994</v>
       </c>
       <c r="R46">
         <v>0.7857142857142857</v>
       </c>
       <c r="S46">
-        <v>0.1203483403239095</v>
+        <v>0.1188073414156182</v>
       </c>
       <c r="T46">
-        <v>1.092488879739142</v>
+        <v>1.089653527341911</v>
       </c>
       <c r="U46">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V46">
-        <v>0.1204804946693277</v>
+        <v>0.1260662522681197</v>
       </c>
       <c r="W46">
-        <v>0.1290255114320096</v>
+        <v>0.1225255114320096</v>
       </c>
       <c r="X46" t="inlineStr">
         <is>
@@ -5034,7 +5034,7 @@
         </is>
       </c>
       <c r="Y46">
-        <v>0.5476386121333077</v>
+        <v>0.5730284194005438</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -5045,13 +5045,13 @@
         <v>0.45</v>
       </c>
       <c r="B47">
-        <v>0.1254752956114735</v>
+        <v>0.1217523362228304</v>
       </c>
       <c r="C47">
-        <v>0.8938866822494784</v>
+        <v>0.9815341955850201</v>
       </c>
       <c r="D47">
-        <v>3.672486682249478</v>
+        <v>3.76013419558502</v>
       </c>
       <c r="E47">
         <v>2.8536</v>
@@ -5078,37 +5078,37 @@
         <v>0.235</v>
       </c>
       <c r="M47">
-        <v>0.43886772</v>
+        <v>0.41942232</v>
       </c>
       <c r="N47">
-        <v>-0.20386772</v>
+        <v>-0.18442232</v>
       </c>
       <c r="O47">
-        <v>-0.04485089840000001</v>
+        <v>-0.0405729104</v>
       </c>
       <c r="P47">
-        <v>-0.1590168216</v>
+        <v>-0.1438494096</v>
       </c>
       <c r="Q47">
-        <v>-0.07601682160000001</v>
+        <v>-0.06084940959999996</v>
       </c>
       <c r="R47">
         <v>0.8181818181818181</v>
       </c>
       <c r="S47">
-        <v>0.1222492192388896</v>
+        <v>0.1207983839868112</v>
       </c>
       <c r="T47">
-        <v>1.112352313916217</v>
+        <v>1.109465409657219</v>
       </c>
       <c r="U47">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V47">
-        <v>0.1178031503433426</v>
+        <v>0.1232647799954948</v>
       </c>
       <c r="W47">
-        <v>0.1294182778446316</v>
+        <v>0.1229182778446316</v>
       </c>
       <c r="X47" t="inlineStr">
         <is>
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="Y47">
-        <v>0.5354688651970119</v>
+        <v>0.5602944545249762</v>
       </c>
       <c r="Z47">
         <v>0</v>
@@ -5127,13 +5127,13 @@
         <v>0.46</v>
       </c>
       <c r="B48">
-        <v>0.1267842956114735</v>
+        <v>0.1230613362228304</v>
       </c>
       <c r="C48">
-        <v>0.7840916795224842</v>
+        <v>0.8717880400927904</v>
       </c>
       <c r="D48">
-        <v>3.629171679522484</v>
+        <v>3.71686804009279</v>
       </c>
       <c r="E48">
         <v>2.92008</v>
@@ -5160,37 +5160,37 @@
         <v>0.235</v>
       </c>
       <c r="M48">
-        <v>0.448620336</v>
+        <v>0.428742816</v>
       </c>
       <c r="N48">
-        <v>-0.213620336</v>
+        <v>-0.193742816</v>
       </c>
       <c r="O48">
-        <v>-0.04699647391999999</v>
+        <v>-0.04262341952</v>
       </c>
       <c r="P48">
-        <v>-0.16662386208</v>
+        <v>-0.15111939648</v>
       </c>
       <c r="Q48">
-        <v>-0.08362386207999994</v>
+        <v>-0.06811939647999998</v>
       </c>
       <c r="R48">
         <v>0.8518518518518519</v>
       </c>
       <c r="S48">
-        <v>0.1242205010766468</v>
+        <v>0.1228631688754559</v>
       </c>
       <c r="T48">
-        <v>1.132951430840591</v>
+        <v>1.130011065391611</v>
       </c>
       <c r="U48">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V48">
-        <v>0.1152422122924004</v>
+        <v>0.1205851108651579</v>
       </c>
       <c r="W48">
-        <v>0.1297939674567049</v>
+        <v>0.1232939674567049</v>
       </c>
       <c r="X48" t="inlineStr">
         <is>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="Y48">
-        <v>0.5238282376927291</v>
+        <v>0.5481141402961723</v>
       </c>
       <c r="Z48">
         <v>0</v>
@@ -5209,13 +5209,13 @@
         <v>0.47</v>
       </c>
       <c r="B49">
-        <v>0.1280932956114735</v>
+        <v>0.1243703362228304</v>
       </c>
       <c r="C49">
-        <v>0.675306520495611</v>
+        <v>0.7630262459815795</v>
       </c>
       <c r="D49">
-        <v>3.586866520495611</v>
+        <v>3.67458624598158</v>
       </c>
       <c r="E49">
         <v>2.98656</v>
@@ -5242,37 +5242,37 @@
         <v>0.235</v>
       </c>
       <c r="M49">
-        <v>0.458372952</v>
+        <v>0.438063312</v>
       </c>
       <c r="N49">
-        <v>-0.223372952</v>
+        <v>-0.203063312</v>
       </c>
       <c r="O49">
-        <v>-0.04914204944</v>
+        <v>-0.04467392864</v>
       </c>
       <c r="P49">
-        <v>-0.17423090256</v>
+        <v>-0.15838938336</v>
       </c>
       <c r="Q49">
-        <v>-0.09123090255999999</v>
+        <v>-0.07538938335999998</v>
       </c>
       <c r="R49">
         <v>0.8867924528301887</v>
       </c>
       <c r="S49">
-        <v>0.1262661709082817</v>
+        <v>0.1250058701749928</v>
       </c>
       <c r="T49">
-        <v>1.154327872931923</v>
+        <v>1.151332028889567</v>
       </c>
       <c r="U49">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V49">
-        <v>0.1127902503287323</v>
+        <v>0.1180194702084524</v>
       </c>
       <c r="W49">
-        <v>0.130153670276775</v>
+        <v>0.123653670276775</v>
       </c>
       <c r="X49" t="inlineStr">
         <is>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="Y49">
-        <v>0.5126829560396923</v>
+        <v>0.5364521373111474</v>
       </c>
       <c r="Z49">
         <v>0</v>
@@ -5291,13 +5291,13 @@
         <v>0.48</v>
       </c>
       <c r="B50">
-        <v>0.1294022956114735</v>
+        <v>0.1256793362228304</v>
       </c>
       <c r="C50">
-        <v>0.5674962969287689</v>
+        <v>0.6552155978433216</v>
       </c>
       <c r="D50">
-        <v>3.545536296928768</v>
+        <v>3.633255597843321</v>
       </c>
       <c r="E50">
         <v>3.05304</v>
@@ -5324,37 +5324,37 @@
         <v>0.235</v>
       </c>
       <c r="M50">
-        <v>0.4681255679999999</v>
+        <v>0.4473838079999999</v>
       </c>
       <c r="N50">
-        <v>-0.2331255679999999</v>
+        <v>-0.212383808</v>
       </c>
       <c r="O50">
-        <v>-0.05128762495999999</v>
+        <v>-0.04672443775999999</v>
       </c>
       <c r="P50">
-        <v>-0.1818379430399999</v>
+        <v>-0.16565937024</v>
       </c>
       <c r="Q50">
-        <v>-0.09883794303999993</v>
+        <v>-0.08265937023999995</v>
       </c>
       <c r="R50">
         <v>0.923076923076923</v>
       </c>
       <c r="S50">
-        <v>0.1283905203488256</v>
+        <v>0.1272309830629734</v>
       </c>
       <c r="T50">
-        <v>1.176526485872922</v>
+        <v>1.173473029445135</v>
       </c>
       <c r="U50">
-        <v>0.1467</v>
+        <v>0.1402</v>
       </c>
       <c r="V50">
-        <v>0.1104404534468837</v>
+        <v>0.1155607312457764</v>
       </c>
       <c r="W50">
-        <v>0.1304983854793422</v>
+        <v>0.1239983854793422</v>
       </c>
       <c r="X50" t="inlineStr">
         <is>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="Y50">
-        <v>0.5020020611221987</v>
+        <v>0.5252760511171652</v>
       </c>
       <c r="Z50">
         <v>0</v>
@@ -5373,13 +5373,13 @@
         <v>0.49</v>
       </c>
       <c r="B51">
-        <v>0.1527758593867317</v>
+        <v>0.1269883362228304</v>
       </c>
       <c r="C51">
-        <v>-0.1039940977845113</v>
+        <v>0.5483243580364134</v>
       </c>
       <c r="D51">
-        <v>2.940525902215489</v>
+        <v>3.592844358036413</v>
       </c>
       <c r="E51">
         <v>3.11952</v>
@@ -5406,45 +5406,45 @@
         <v>0.235</v>
       </c>
       <c r="M51">
-        <v>0.619580304</v>
+        <v>0.4567043039999999</v>
       </c>
       <c r="N51">
-        <v>-0.384580304</v>
+        <v>-0.221704304</v>
       </c>
       <c r="O51">
-        <v>-0.08460766688</v>
+        <v>-0.04877494687999999</v>
       </c>
       <c r="P51">
-        <v>-0.29997263712</v>
+        <v>-0.17292935712</v>
       </c>
       <c r="Q51">
-        <v>-0.21697263712</v>
+        <v>-0.08992935711999994</v>
       </c>
       <c r="R51">
         <v>0.9607843137254901</v>
       </c>
       <c r="S51">
-        <v>0.1320679105032303</v>
+        <v>0.1295433552798944</v>
       </c>
       <c r="T51">
-        <v>1.214953761119018</v>
+        <v>1.196482304532294</v>
       </c>
       <c r="U51">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V51">
-        <v>0.08344358215751158</v>
+        <v>0.1132023489754544</v>
       </c>
       <c r="W51">
-        <v>0.1743290306736413</v>
+        <v>0.1243290306736413</v>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y51">
-        <v>0.3792890098068709</v>
+        <v>0.5145561317066107</v>
       </c>
       <c r="Z51">
         <v>0</v>
@@ -5455,13 +5455,13 @@
         <v>0.5</v>
       </c>
       <c r="B52">
-        <v>0.1545198593867317</v>
+        <v>0.1282973362228304</v>
       </c>
       <c r="C52">
-        <v>-0.2074426846626656</v>
+        <v>0.4423221854067427</v>
       </c>
       <c r="D52">
-        <v>2.903557315337334</v>
+        <v>3.553322185406742</v>
       </c>
       <c r="E52">
         <v>3.186</v>
@@ -5488,45 +5488,45 @@
         <v>0.235</v>
       </c>
       <c r="M52">
-        <v>0.6322248</v>
+        <v>0.4660248</v>
       </c>
       <c r="N52">
-        <v>-0.3972248</v>
+        <v>-0.2310248</v>
       </c>
       <c r="O52">
-        <v>-0.087389456</v>
+        <v>-0.050825456</v>
       </c>
       <c r="P52">
-        <v>-0.309835344</v>
+        <v>-0.180199344</v>
       </c>
       <c r="Q52">
-        <v>-0.226835344</v>
+        <v>-0.09719934399999997</v>
       </c>
       <c r="R52">
         <v>1</v>
       </c>
       <c r="S52">
-        <v>0.1343932687132949</v>
+        <v>0.1319482223854924</v>
       </c>
       <c r="T52">
-        <v>1.239252836341398</v>
+        <v>1.220411950622941</v>
       </c>
       <c r="U52">
-        <v>0.1902</v>
+        <v>0.1402</v>
       </c>
       <c r="V52">
-        <v>0.08177471051436135</v>
+        <v>0.1109383019959453</v>
       </c>
       <c r="W52">
-        <v>0.1746464500601685</v>
+        <v>0.1246464500601685</v>
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>D2/D</t>
+          <t>C2/C</t>
         </is>
       </c>
       <c r="Y52">
-        <v>0.3717032296107333</v>
+        <v>0.5042650090724785</v>
       </c>
       <c r="Z52">
         <v>0</v>
@@ -5537,13 +5537,13 @@
         <v>0.51</v>
       </c>
       <c r="B53">
-        <v>0.1562638593867317</v>
+        <v>0.1526441353259399</v>
       </c>
       <c r="C53">
-        <v>-0.3099732672114932</v>
+        <v>-0.2276845734662762</v>
       </c>
       <c r="D53">
-        <v>2.867506732788506</v>
+        <v>2.949795426533723</v>
       </c>
       <c r="E53">
         <v>3.25248</v>
@@ -5570,37 +5570,37 @@
         <v>0.235</v>
       </c>
       <c r="M53">
-        <v>0.644869296</v>
+        <v>0.6228311759999999</v>
       </c>
       <c r="N53">
-        <v>-0.409869296</v>
+        <v>-0.3878311759999999</v>
       </c>
       <c r="O53">
-        <v>-0.09017124511999999</v>
+        <v>-0.08532285871999999</v>
       </c>
       <c r="P53">
-        <v>-0.31969805088</v>
+        <v>-0.3025083172799999</v>
       </c>
       <c r="Q53">
-        <v>-0.23669805088</v>
+        <v>-0.2195083172799999</v>
       </c>
       <c r="R53">
         <v>1.040816326530612</v>
       </c>
       <c r="S53">
-        <v>0.1368135395033622</v>
+        <v>0.1361916536650116</v>
       </c>
       <c r="T53">
-        <v>1.264543710552447</v>
+        <v>1.262636241725141</v>
       </c>
       <c r="U53">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V53">
-        <v>0.08017128481800133</v>
+        <v>0.08300804775385875</v>
       </c>
       <c r="W53">
-        <v>0.1749514216276161</v>
+        <v>0.1684514216276161</v>
       </c>
       <c r="X53" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="Y53">
-        <v>0.364414930990915</v>
+        <v>0.3773093079720852</v>
       </c>
       <c r="Z53">
         <v>0</v>
@@ -5619,13 +5619,13 @@
         <v>0.52</v>
       </c>
       <c r="B54">
-        <v>0.1580078593867317</v>
+        <v>0.1543881353259399</v>
       </c>
       <c r="C54">
-        <v>-0.411619619926102</v>
+        <v>-0.3296219402062786</v>
       </c>
       <c r="D54">
-        <v>2.832340380073898</v>
+        <v>2.914338059793721</v>
       </c>
       <c r="E54">
         <v>3.31896</v>
@@ -5652,37 +5652,37 @@
         <v>0.235</v>
       </c>
       <c r="M54">
-        <v>0.657513792</v>
+        <v>0.6350435520000001</v>
       </c>
       <c r="N54">
-        <v>-0.4225137920000001</v>
+        <v>-0.4000435520000001</v>
       </c>
       <c r="O54">
-        <v>-0.09295303424000001</v>
+        <v>-0.08800958144000001</v>
       </c>
       <c r="P54">
-        <v>-0.32956075776</v>
+        <v>-0.31203397056</v>
       </c>
       <c r="Q54">
-        <v>-0.24656075776</v>
+        <v>-0.22903397056</v>
       </c>
       <c r="R54">
         <v>1.083333333333333</v>
       </c>
       <c r="S54">
-        <v>0.1393346549096822</v>
+        <v>0.1388352297830327</v>
       </c>
       <c r="T54">
-        <v>1.290888371188956</v>
+        <v>1.288941163427748</v>
       </c>
       <c r="U54">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V54">
-        <v>0.07862952934073206</v>
+        <v>0.0814117391432076</v>
       </c>
       <c r="W54">
-        <v>0.1752446635193928</v>
+        <v>0.1687446635193928</v>
       </c>
       <c r="X54" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         </is>
       </c>
       <c r="Y54">
-        <v>0.3574069515487821</v>
+        <v>0.3700533597418527</v>
       </c>
       <c r="Z54">
         <v>0</v>
@@ -5701,13 +5701,13 @@
         <v>0.53</v>
       </c>
       <c r="B55">
-        <v>0.1597518593867317</v>
+        <v>0.1561321353259399</v>
       </c>
       <c r="C55">
-        <v>-0.5124138805677685</v>
+        <v>-0.4307170165654006</v>
       </c>
       <c r="D55">
-        <v>2.798026119432231</v>
+        <v>2.879722983434599</v>
       </c>
       <c r="E55">
         <v>3.38544</v>
@@ -5734,37 +5734,37 @@
         <v>0.235</v>
       </c>
       <c r="M55">
-        <v>0.670158288</v>
+        <v>0.647255928</v>
       </c>
       <c r="N55">
-        <v>-0.435158288</v>
+        <v>-0.412255928</v>
       </c>
       <c r="O55">
-        <v>-0.09573482336</v>
+        <v>-0.09069630416</v>
       </c>
       <c r="P55">
-        <v>-0.33942346464</v>
+        <v>-0.32155962384</v>
       </c>
       <c r="Q55">
-        <v>-0.25642346464</v>
+        <v>-0.23855962384</v>
       </c>
       <c r="R55">
         <v>1.127659574468085</v>
       </c>
       <c r="S55">
-        <v>0.1419630518226542</v>
+        <v>0.1415912985018206</v>
       </c>
       <c r="T55">
-        <v>1.318354081214254</v>
+        <v>1.316365443500679</v>
       </c>
       <c r="U55">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V55">
-        <v>0.07714595331543522</v>
+        <v>0.07987566859333577</v>
       </c>
       <c r="W55">
-        <v>0.1755268396794042</v>
+        <v>0.1690268396794042</v>
       </c>
       <c r="X55" t="inlineStr">
         <is>
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="Y55">
-        <v>0.3506634241610692</v>
+        <v>0.363071220878799</v>
       </c>
       <c r="Z55">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0.54</v>
       </c>
       <c r="B56">
-        <v>0.1614958593867317</v>
+        <v>0.1578761353259399</v>
       </c>
       <c r="C56">
-        <v>-0.6123866481236204</v>
+        <v>-0.5309994631837105</v>
       </c>
       <c r="D56">
-        <v>2.76453335187638</v>
+        <v>2.84592053681629</v>
       </c>
       <c r="E56">
         <v>3.45192</v>
@@ -5816,37 +5816,37 @@
         <v>0.235</v>
       </c>
       <c r="M56">
-        <v>0.6828027840000001</v>
+        <v>0.659468304</v>
       </c>
       <c r="N56">
-        <v>-0.4478027840000001</v>
+        <v>-0.424468304</v>
       </c>
       <c r="O56">
-        <v>-0.09851661248000002</v>
+        <v>-0.09338302688000001</v>
       </c>
       <c r="P56">
-        <v>-0.3492861715200001</v>
+        <v>-0.33108527712</v>
       </c>
       <c r="Q56">
-        <v>-0.2662861715200001</v>
+        <v>-0.24808527712</v>
       </c>
       <c r="R56">
         <v>1.173913043478261</v>
       </c>
       <c r="S56">
-        <v>0.1447057268622771</v>
+        <v>0.1444671962953384</v>
       </c>
       <c r="T56">
-        <v>1.347013952544998</v>
+        <v>1.344982083576781</v>
       </c>
       <c r="U56">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V56">
-        <v>0.07571732455033457</v>
+        <v>0.07839648954531103</v>
       </c>
       <c r="W56">
-        <v>0.1757985648705264</v>
+        <v>0.1692985648705264</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         </is>
       </c>
       <c r="Y56">
-        <v>0.3441696570469753</v>
+        <v>0.3563476797514138</v>
       </c>
       <c r="Z56">
         <v>0</v>
@@ -5865,13 +5865,13 @@
         <v>0.55</v>
       </c>
       <c r="B57">
-        <v>0.1632398593867317</v>
+        <v>0.1596201353259399</v>
       </c>
       <c r="C57">
-        <v>-0.7115670738139754</v>
+        <v>-0.6304975642215109</v>
       </c>
       <c r="D57">
-        <v>2.731832926186025</v>
+        <v>2.812902435778489</v>
       </c>
       <c r="E57">
         <v>3.5184</v>
@@ -5898,37 +5898,37 @@
         <v>0.235</v>
       </c>
       <c r="M57">
-        <v>0.69544728</v>
+        <v>0.67168068</v>
       </c>
       <c r="N57">
-        <v>-0.46044728</v>
+        <v>-0.43668068</v>
       </c>
       <c r="O57">
-        <v>-0.1012984016</v>
+        <v>-0.0960697496</v>
       </c>
       <c r="P57">
-        <v>-0.3591488784</v>
+        <v>-0.3406109304</v>
       </c>
       <c r="Q57">
-        <v>-0.2761488784</v>
+        <v>-0.2576109304</v>
       </c>
       <c r="R57">
         <v>1.222222222222223</v>
       </c>
       <c r="S57">
-        <v>0.1475702985703277</v>
+        <v>0.1474709117685682</v>
       </c>
       <c r="T57">
-        <v>1.376947595934887</v>
+        <v>1.374870574322932</v>
       </c>
       <c r="U57">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V57">
-        <v>0.07434064592214668</v>
+        <v>0.07697109882630537</v>
       </c>
       <c r="W57">
-        <v>0.1760604091456077</v>
+        <v>0.1695604091456077</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="Y57">
-        <v>0.3379120269188485</v>
+        <v>0.3498686310286608</v>
       </c>
       <c r="Z57">
         <v>0</v>
@@ -5947,13 +5947,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="B58">
-        <v>0.1649838593867317</v>
+        <v>0.1613641353259399</v>
       </c>
       <c r="C58">
-        <v>-0.8099829457162966</v>
+        <v>-0.7292383062924963</v>
       </c>
       <c r="D58">
-        <v>2.699897054283703</v>
+        <v>2.780641693707504</v>
       </c>
       <c r="E58">
         <v>3.58488</v>
@@ -5980,37 +5980,37 @@
         <v>0.235</v>
       </c>
       <c r="M58">
-        <v>0.7080917760000001</v>
+        <v>0.6838930560000001</v>
       </c>
       <c r="N58">
-        <v>-0.4730917760000001</v>
+        <v>-0.4488930560000001</v>
       </c>
       <c r="O58">
-        <v>-0.10408019072</v>
+        <v>-0.09875647232000001</v>
       </c>
       <c r="P58">
-        <v>-0.3690115852800001</v>
+        <v>-0.3501365836800001</v>
       </c>
       <c r="Q58">
-        <v>-0.28601158528</v>
+        <v>-0.26713658368</v>
       </c>
       <c r="R58">
         <v>1.272727272727273</v>
       </c>
       <c r="S58">
-        <v>0.1505650780832897</v>
+        <v>0.1506111597633084</v>
       </c>
       <c r="T58">
-        <v>1.408241859478862</v>
+        <v>1.406117632830271</v>
       </c>
       <c r="U58">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V58">
-        <v>0.07301313438782261</v>
+        <v>0.07559661491869277</v>
       </c>
       <c r="W58">
-        <v>0.1763129018394362</v>
+        <v>0.1698129018394361</v>
       </c>
       <c r="X58" t="inlineStr">
         <is>
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="Y58">
-        <v>0.3318778835810119</v>
+        <v>0.343620976903149</v>
       </c>
       <c r="Z58">
         <v>0</v>
@@ -6029,13 +6029,13 @@
         <v>0.5700000000000001</v>
       </c>
       <c r="B59">
-        <v>0.1667278593867317</v>
+        <v>0.1631081353259399</v>
       </c>
       <c r="C59">
-        <v>-0.9076607675220489</v>
+        <v>-0.8272474520268838</v>
       </c>
       <c r="D59">
-        <v>2.668699232477951</v>
+        <v>2.749112547973116</v>
       </c>
       <c r="E59">
         <v>3.65136</v>
@@ -6062,37 +6062,37 @@
         <v>0.235</v>
       </c>
       <c r="M59">
-        <v>0.7207362720000001</v>
+        <v>0.6961054320000001</v>
       </c>
       <c r="N59">
-        <v>-0.4857362720000001</v>
+        <v>-0.4611054320000001</v>
       </c>
       <c r="O59">
-        <v>-0.10686197984</v>
+        <v>-0.10144319504</v>
       </c>
       <c r="P59">
-        <v>-0.3788742921600001</v>
+        <v>-0.3596622369600001</v>
       </c>
       <c r="Q59">
-        <v>-0.2958742921600001</v>
+        <v>-0.2766622369600001</v>
       </c>
       <c r="R59">
         <v>1.325581395348838</v>
       </c>
       <c r="S59">
-        <v>0.153699149666622</v>
+        <v>0.1538974658043155</v>
       </c>
       <c r="T59">
-        <v>1.440991670164417</v>
+        <v>1.438818042896091</v>
       </c>
       <c r="U59">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V59">
-        <v>0.07173220220558012</v>
+        <v>0.07427035851661044</v>
       </c>
       <c r="W59">
-        <v>0.1765565351404987</v>
+        <v>0.1700565351404986</v>
       </c>
       <c r="X59" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="Y59">
-        <v>0.3260554645708187</v>
+        <v>0.3375925387118657</v>
       </c>
       <c r="Z59">
         <v>0</v>
@@ -6111,13 +6111,13 @@
         <v>0.58</v>
       </c>
       <c r="B60">
-        <v>0.1684718593867317</v>
+        <v>0.1648521353259399</v>
       </c>
       <c r="C60">
-        <v>-1.004625831895647</v>
+        <v>-0.9245496086859282</v>
       </c>
       <c r="D60">
-        <v>2.638214168104353</v>
+        <v>2.718290391314071</v>
       </c>
       <c r="E60">
         <v>3.71784</v>
@@ -6144,37 +6144,37 @@
         <v>0.235</v>
       </c>
       <c r="M60">
-        <v>0.733380768</v>
+        <v>0.708317808</v>
       </c>
       <c r="N60">
-        <v>-0.498380768</v>
+        <v>-0.473317808</v>
       </c>
       <c r="O60">
-        <v>-0.10964376896</v>
+        <v>-0.10412991776</v>
       </c>
       <c r="P60">
-        <v>-0.38873699904</v>
+        <v>-0.36918789024</v>
       </c>
       <c r="Q60">
-        <v>-0.30573699904</v>
+        <v>-0.28618789024</v>
       </c>
       <c r="R60">
         <v>1.380952380952381</v>
       </c>
       <c r="S60">
-        <v>0.1569824627539225</v>
+        <v>0.1573402626091802</v>
       </c>
       <c r="T60">
-        <v>1.475300995644521</v>
+        <v>1.473075615345998</v>
       </c>
       <c r="U60">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V60">
-        <v>0.07049544009858737</v>
+        <v>0.07298983509391027</v>
       </c>
       <c r="W60">
-        <v>0.1767917672932487</v>
+        <v>0.1702917672932487</v>
       </c>
       <c r="X60" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="Y60">
-        <v>0.3204338186299426</v>
+        <v>0.3317719776995921</v>
       </c>
       <c r="Z60">
         <v>0</v>
@@ -6193,13 +6193,13 @@
         <v>0.59</v>
       </c>
       <c r="B61">
-        <v>0.1702158593867317</v>
+        <v>0.1665961353259399</v>
       </c>
       <c r="C61">
-        <v>-1.100902288862225</v>
+        <v>-1.021168292211931</v>
       </c>
       <c r="D61">
-        <v>2.608417711137775</v>
+        <v>2.688151707788069</v>
       </c>
       <c r="E61">
         <v>3.78432</v>
@@ -6226,37 +6226,37 @@
         <v>0.235</v>
       </c>
       <c r="M61">
-        <v>0.7460252639999999</v>
+        <v>0.7205301839999999</v>
       </c>
       <c r="N61">
-        <v>-0.5110252639999999</v>
+        <v>-0.4855301839999999</v>
       </c>
       <c r="O61">
-        <v>-0.11242555808</v>
+        <v>-0.10681664048</v>
       </c>
       <c r="P61">
-        <v>-0.3985997059199999</v>
+        <v>-0.3787135435199999</v>
       </c>
       <c r="Q61">
-        <v>-0.3155997059199999</v>
+        <v>-0.2957135435199999</v>
       </c>
       <c r="R61">
         <v>1.439024390243902</v>
       </c>
       <c r="S61">
-        <v>0.1604259374552377</v>
+        <v>0.1609510007215992</v>
       </c>
       <c r="T61">
-        <v>1.511283946757803</v>
+        <v>1.509004288891022</v>
       </c>
       <c r="U61">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V61">
-        <v>0.06930060213081471</v>
+        <v>0.07175271924486094</v>
       </c>
       <c r="W61">
-        <v>0.1770190254747191</v>
+        <v>0.1705190254747191</v>
       </c>
       <c r="X61" t="inlineStr">
         <is>
@@ -6264,7 +6264,7 @@
         </is>
       </c>
       <c r="Y61">
-        <v>0.3150027369582487</v>
+        <v>0.326148723840277</v>
       </c>
       <c r="Z61">
         <v>0</v>
@@ -6275,13 +6275,13 @@
         <v>0.6</v>
       </c>
       <c r="B62">
-        <v>0.1719598593867317</v>
+        <v>0.1683401353259399</v>
       </c>
       <c r="C62">
-        <v>-1.196513209612854</v>
+        <v>-1.117125987064078</v>
       </c>
       <c r="D62">
-        <v>2.579286790387146</v>
+        <v>2.658674012935921</v>
       </c>
       <c r="E62">
         <v>3.8508</v>
@@ -6308,37 +6308,37 @@
         <v>0.235</v>
       </c>
       <c r="M62">
-        <v>0.75866976</v>
+        <v>0.7327425599999999</v>
       </c>
       <c r="N62">
-        <v>-0.52366976</v>
+        <v>-0.4977425599999999</v>
       </c>
       <c r="O62">
-        <v>-0.1152073472</v>
+        <v>-0.1095033632</v>
       </c>
       <c r="P62">
-        <v>-0.4084624128</v>
+        <v>-0.3882391968</v>
       </c>
       <c r="Q62">
-        <v>-0.3254624128</v>
+        <v>-0.3052391967999999</v>
       </c>
       <c r="R62">
         <v>1.5</v>
       </c>
       <c r="S62">
-        <v>0.1640415858916186</v>
+        <v>0.1647422757396392</v>
       </c>
       <c r="T62">
-        <v>1.549066045426748</v>
+        <v>1.546729396113298</v>
       </c>
       <c r="U62">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V62">
-        <v>0.06814559209530112</v>
+        <v>0.07055684059077993</v>
       </c>
       <c r="W62">
-        <v>0.1772387083834737</v>
+        <v>0.1707387083834737</v>
       </c>
       <c r="X62" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="Y62">
-        <v>0.3097526913422778</v>
+        <v>0.3207129117762725</v>
       </c>
       <c r="Z62">
         <v>0</v>
@@ -6357,13 +6357,13 @@
         <v>0.61</v>
       </c>
       <c r="B63">
-        <v>0.1737038593867317</v>
+        <v>0.1700841353259399</v>
       </c>
       <c r="C63">
-        <v>-1.291480646081511</v>
+        <v>-1.212444202160119</v>
       </c>
       <c r="D63">
-        <v>2.550799353918489</v>
+        <v>2.629835797839881</v>
       </c>
       <c r="E63">
         <v>3.91728</v>
@@ -6390,37 +6390,37 @@
         <v>0.235</v>
       </c>
       <c r="M63">
-        <v>0.771314256</v>
+        <v>0.744954936</v>
       </c>
       <c r="N63">
-        <v>-0.536314256</v>
+        <v>-0.509954936</v>
       </c>
       <c r="O63">
-        <v>-0.11798913632</v>
+        <v>-0.11219008592</v>
       </c>
       <c r="P63">
-        <v>-0.41832511968</v>
+        <v>-0.39776485008</v>
       </c>
       <c r="Q63">
-        <v>-0.33532511968</v>
+        <v>-0.3147648500799999</v>
       </c>
       <c r="R63">
         <v>1.564102564102564</v>
       </c>
       <c r="S63">
-        <v>0.1678426521965319</v>
+        <v>0.1687279751175787</v>
       </c>
       <c r="T63">
-        <v>1.588785687617177</v>
+        <v>1.586389124218767</v>
       </c>
       <c r="U63">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V63">
-        <v>0.06702845124127978</v>
+        <v>0.0694001710728983</v>
       </c>
       <c r="W63">
-        <v>0.1774511885739086</v>
+        <v>0.1709511885739086</v>
       </c>
       <c r="X63" t="inlineStr">
         <is>
@@ -6428,7 +6428,7 @@
         </is>
       </c>
       <c r="Y63">
-        <v>0.3046747783694536</v>
+        <v>0.3154553230586286</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -6439,13 +6439,13 @@
         <v>0.62</v>
       </c>
       <c r="B64">
-        <v>0.1754478593867317</v>
+        <v>0.1718281353259399</v>
       </c>
       <c r="C64">
-        <v>-1.385825686617116</v>
+        <v>-1.307143523216347</v>
       </c>
       <c r="D64">
-        <v>2.522934313382884</v>
+        <v>2.601616476783653</v>
       </c>
       <c r="E64">
         <v>3.98376</v>
@@ -6472,37 +6472,37 @@
         <v>0.235</v>
       </c>
       <c r="M64">
-        <v>0.7839587520000001</v>
+        <v>0.757167312</v>
       </c>
       <c r="N64">
-        <v>-0.5489587520000001</v>
+        <v>-0.522167312</v>
       </c>
       <c r="O64">
-        <v>-0.12077092544</v>
+        <v>-0.11487680864</v>
       </c>
       <c r="P64">
-        <v>-0.4281878265600001</v>
+        <v>-0.40729050336</v>
       </c>
       <c r="Q64">
-        <v>-0.3451878265600001</v>
+        <v>-0.32429050336</v>
       </c>
       <c r="R64">
         <v>1.631578947368421</v>
       </c>
       <c r="S64">
-        <v>0.1718437746227565</v>
+        <v>0.1729234481469887</v>
       </c>
       <c r="T64">
-        <v>1.630595837291313</v>
+        <v>1.62813620643505</v>
       </c>
       <c r="U64">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V64">
-        <v>0.06594734718900107</v>
+        <v>0.06828081347494831</v>
       </c>
       <c r="W64">
-        <v>0.177656814564652</v>
+        <v>0.171156814564652</v>
       </c>
       <c r="X64" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="Y64">
-        <v>0.299760669040914</v>
+        <v>0.3103673339770379</v>
       </c>
       <c r="Z64">
         <v>0</v>
@@ -6521,13 +6521,13 @@
         <v>0.63</v>
       </c>
       <c r="B65">
-        <v>0.1771918593867317</v>
+        <v>0.1735721353259399</v>
       </c>
       <c r="C65">
-        <v>-1.479568508046023</v>
+        <v>-1.401243661753586</v>
       </c>
       <c r="D65">
-        <v>2.495671491953976</v>
+        <v>2.573996338246414</v>
       </c>
       <c r="E65">
         <v>4.05024</v>
@@ -6554,37 +6554,37 @@
         <v>0.235</v>
       </c>
       <c r="M65">
-        <v>0.7966032479999999</v>
+        <v>0.7693796879999999</v>
       </c>
       <c r="N65">
-        <v>-0.5616032479999999</v>
+        <v>-0.5343796879999999</v>
       </c>
       <c r="O65">
-        <v>-0.12355271456</v>
+        <v>-0.11756353136</v>
       </c>
       <c r="P65">
-        <v>-0.4380505334399999</v>
+        <v>-0.4168161566399999</v>
       </c>
       <c r="Q65">
-        <v>-0.3550505334399999</v>
+        <v>-0.3338161566399999</v>
       </c>
       <c r="R65">
         <v>1.702702702702703</v>
       </c>
       <c r="S65">
-        <v>0.176061173936885</v>
+        <v>0.1773457035023126</v>
       </c>
       <c r="T65">
-        <v>1.674665995055943</v>
+        <v>1.672139887690052</v>
       </c>
       <c r="U65">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V65">
-        <v>0.06490056390028678</v>
+        <v>0.06719699103883804</v>
       </c>
       <c r="W65">
-        <v>0.1778559127461655</v>
+        <v>0.1713559127461655</v>
       </c>
       <c r="X65" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="Y65">
-        <v>0.2950025631831218</v>
+        <v>0.3054408683583547</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -6603,13 +6603,13 @@
         <v>0.64</v>
       </c>
       <c r="B66">
-        <v>0.1789358593867317</v>
+        <v>0.1753161353259399</v>
       </c>
       <c r="C66">
-        <v>-1.572728424395069</v>
+        <v>-1.494763501014321</v>
       </c>
       <c r="D66">
-        <v>2.46899157560493</v>
+        <v>2.546956498985679</v>
       </c>
       <c r="E66">
         <v>4.11672</v>
@@ -6636,37 +6636,37 @@
         <v>0.235</v>
       </c>
       <c r="M66">
-        <v>0.809247744</v>
+        <v>0.781592064</v>
       </c>
       <c r="N66">
-        <v>-0.574247744</v>
+        <v>-0.546592064</v>
       </c>
       <c r="O66">
-        <v>-0.12633450368</v>
+        <v>-0.12025025408</v>
       </c>
       <c r="P66">
-        <v>-0.44791324032</v>
+        <v>-0.42634180992</v>
       </c>
       <c r="Q66">
-        <v>-0.36491324032</v>
+        <v>-0.34334180992</v>
       </c>
       <c r="R66">
         <v>1.777777777777778</v>
       </c>
       <c r="S66">
-        <v>0.1805128732129097</v>
+        <v>0.1820136397107102</v>
       </c>
       <c r="T66">
-        <v>1.721184494918609</v>
+        <v>1.718588217903664</v>
       </c>
       <c r="U66">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V66">
-        <v>0.0638864925893448</v>
+        <v>0.06614703805385619</v>
       </c>
       <c r="W66">
-        <v>0.1780487891095066</v>
+        <v>0.1715487891095066</v>
       </c>
       <c r="X66" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="Y66">
-        <v>0.2903931481333855</v>
+        <v>0.3006683547902553</v>
       </c>
       <c r="Z66">
         <v>0</v>
@@ -6685,13 +6685,13 @@
         <v>0.65</v>
       </c>
       <c r="B67">
-        <v>0.1806798593867317</v>
+        <v>0.1770601353259399</v>
       </c>
       <c r="C67">
-        <v>-1.665323932522447</v>
+        <v>-1.587721139015751</v>
       </c>
       <c r="D67">
-        <v>2.442876067477553</v>
+        <v>2.520478860984249</v>
       </c>
       <c r="E67">
         <v>4.1832</v>
@@ -6718,37 +6718,37 @@
         <v>0.235</v>
       </c>
       <c r="M67">
-        <v>0.8218922400000001</v>
+        <v>0.7938044400000001</v>
       </c>
       <c r="N67">
-        <v>-0.5868922400000001</v>
+        <v>-0.5588044400000001</v>
       </c>
       <c r="O67">
-        <v>-0.1291162928</v>
+        <v>-0.1229369768</v>
       </c>
       <c r="P67">
-        <v>-0.4577759472</v>
+        <v>-0.4358674632</v>
       </c>
       <c r="Q67">
-        <v>-0.3747759472</v>
+        <v>-0.3528674632</v>
       </c>
       <c r="R67">
         <v>1.857142857142857</v>
       </c>
       <c r="S67">
-        <v>0.185218955304707</v>
+        <v>0.1869483151310163</v>
       </c>
       <c r="T67">
-        <v>1.770361194773426</v>
+        <v>1.767690738415198</v>
       </c>
       <c r="U67">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V67">
-        <v>0.06290362347258566</v>
+        <v>0.06512939131456609</v>
       </c>
       <c r="W67">
-        <v>0.1782357308155142</v>
+        <v>0.1717357308155142</v>
       </c>
       <c r="X67" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         </is>
       </c>
       <c r="Y67">
-        <v>0.2859255612390257</v>
+        <v>0.2960426877934822</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0.66</v>
       </c>
       <c r="B68">
-        <v>0.1824238593867317</v>
+        <v>0.1788041353259399</v>
       </c>
       <c r="C68">
-        <v>-1.75737275488295</v>
+        <v>-1.680133928945057</v>
       </c>
       <c r="D68">
-        <v>2.41730724511705</v>
+        <v>2.494546071054942</v>
       </c>
       <c r="E68">
         <v>4.24968</v>
@@ -6800,37 +6800,37 @@
         <v>0.235</v>
       </c>
       <c r="M68">
-        <v>0.834536736</v>
+        <v>0.806016816</v>
       </c>
       <c r="N68">
-        <v>-0.599536736</v>
+        <v>-0.571016816</v>
       </c>
       <c r="O68">
-        <v>-0.13189808192</v>
+        <v>-0.12562369952</v>
       </c>
       <c r="P68">
-        <v>-0.46763865408</v>
+        <v>-0.44539311648</v>
       </c>
       <c r="Q68">
-        <v>-0.38463865408</v>
+        <v>-0.36239311648</v>
       </c>
       <c r="R68">
         <v>1.941176470588236</v>
       </c>
       <c r="S68">
-        <v>0.1902018657548455</v>
+        <v>0.1921732655760461</v>
       </c>
       <c r="T68">
-        <v>1.822430641678527</v>
+        <v>1.819681642486233</v>
       </c>
       <c r="U68">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V68">
-        <v>0.06195053826845556</v>
+        <v>0.06414258235525448</v>
       </c>
       <c r="W68">
-        <v>0.1784170076213398</v>
+        <v>0.1719170076213397</v>
       </c>
       <c r="X68" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         </is>
       </c>
       <c r="Y68">
-        <v>0.2815933557657071</v>
+        <v>0.291557192523884</v>
       </c>
       <c r="Z68">
         <v>0</v>
@@ -6849,13 +6849,13 @@
         <v>0.67</v>
       </c>
       <c r="B69">
-        <v>0.1841678593867317</v>
+        <v>0.1805481353259399</v>
       </c>
       <c r="C69">
-        <v>-1.848891879635381</v>
+        <v>-1.77201851708635</v>
       </c>
       <c r="D69">
-        <v>2.392268120364619</v>
+        <v>2.46914148291365</v>
       </c>
       <c r="E69">
         <v>4.31616</v>
@@ -6882,37 +6882,37 @@
         <v>0.235</v>
       </c>
       <c r="M69">
-        <v>0.8471812320000001</v>
+        <v>0.818229192</v>
       </c>
       <c r="N69">
-        <v>-0.6121812320000001</v>
+        <v>-0.583229192</v>
       </c>
       <c r="O69">
-        <v>-0.13467987104</v>
+        <v>-0.12831042224</v>
       </c>
       <c r="P69">
-        <v>-0.4775013609600001</v>
+        <v>-0.45491876976</v>
       </c>
       <c r="Q69">
-        <v>-0.39450136096</v>
+        <v>-0.37191876976</v>
       </c>
       <c r="R69">
         <v>2.030303030303031</v>
       </c>
       <c r="S69">
-        <v>0.1954867707777196</v>
+        <v>0.1977148796844112</v>
       </c>
       <c r="T69">
-        <v>1.877655812638482</v>
+        <v>1.874823510440361</v>
       </c>
       <c r="U69">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V69">
-        <v>0.06102590336892637</v>
+        <v>0.06318523037980292</v>
       </c>
       <c r="W69">
-        <v>0.1785928731792302</v>
+        <v>0.1720928731792302</v>
       </c>
       <c r="X69" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         </is>
       </c>
       <c r="Y69">
-        <v>0.2773904698587563</v>
+        <v>0.2872055926354679</v>
       </c>
       <c r="Z69">
         <v>0</v>
@@ -6931,13 +6931,13 @@
         <v>0.68</v>
       </c>
       <c r="B70">
-        <v>0.1859118593867317</v>
+        <v>0.1822921353259399</v>
       </c>
       <c r="C70">
-        <v>-1.939897598282845</v>
+        <v>-1.863390878453461</v>
       </c>
       <c r="D70">
-        <v>2.367742401717155</v>
+        <v>2.444249121546539</v>
       </c>
       <c r="E70">
         <v>4.38264</v>
@@ -6964,37 +6964,37 @@
         <v>0.235</v>
       </c>
       <c r="M70">
-        <v>0.8598257280000001</v>
+        <v>0.830441568</v>
       </c>
       <c r="N70">
-        <v>-0.6248257280000001</v>
+        <v>-0.595441568</v>
       </c>
       <c r="O70">
-        <v>-0.13746166016</v>
+        <v>-0.13099714496</v>
       </c>
       <c r="P70">
-        <v>-0.4873640678400001</v>
+        <v>-0.46444442304</v>
       </c>
       <c r="Q70">
-        <v>-0.4043640678400001</v>
+        <v>-0.38144442304</v>
       </c>
       <c r="R70">
         <v>2.125</v>
       </c>
       <c r="S70">
-        <v>0.2011019823645233</v>
+        <v>0.203602844674549</v>
       </c>
       <c r="T70">
-        <v>1.936332556783435</v>
+        <v>1.933411745141622</v>
       </c>
       <c r="U70">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V70">
-        <v>0.06012846361350098</v>
+        <v>0.06225603581539405</v>
       </c>
       <c r="W70">
-        <v>0.1787635662207121</v>
+        <v>0.1722635662207121</v>
       </c>
       <c r="X70" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="Y70">
-        <v>0.2733111982431863</v>
+        <v>0.2829819809790639</v>
       </c>
       <c r="Z70">
         <v>0</v>
@@ -7013,13 +7013,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="B71">
-        <v>0.1876558593867317</v>
+        <v>0.1840361353259399</v>
       </c>
       <c r="C71">
-        <v>-2.030405541021197</v>
+        <v>-1.954266350288899</v>
       </c>
       <c r="D71">
-        <v>2.343714458978803</v>
+        <v>2.419853649711101</v>
       </c>
       <c r="E71">
         <v>4.449120000000001</v>
@@ -7046,37 +7046,37 @@
         <v>0.235</v>
       </c>
       <c r="M71">
-        <v>0.8724702240000002</v>
+        <v>0.8426539440000002</v>
       </c>
       <c r="N71">
-        <v>-0.6374702240000002</v>
+        <v>-0.6076539440000002</v>
       </c>
       <c r="O71">
-        <v>-0.14024344928</v>
+        <v>-0.13368386768</v>
       </c>
       <c r="P71">
-        <v>-0.4972267747200002</v>
+        <v>-0.4739700763200001</v>
       </c>
       <c r="Q71">
-        <v>-0.4142267747200001</v>
+        <v>-0.3909700763200001</v>
       </c>
       <c r="R71">
         <v>2.225806451612904</v>
       </c>
       <c r="S71">
-        <v>0.2070794656666048</v>
+        <v>0.2098706783737281</v>
       </c>
       <c r="T71">
-        <v>1.998794897324836</v>
+        <v>1.995779865952643</v>
       </c>
       <c r="U71">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V71">
-        <v>0.05925703660460966</v>
+        <v>0.06135377442676514</v>
       </c>
       <c r="W71">
-        <v>0.1789293116378032</v>
+        <v>0.1724293116378033</v>
       </c>
       <c r="X71" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         </is>
       </c>
       <c r="Y71">
-        <v>0.2693501663845893</v>
+        <v>0.2788807928489325</v>
       </c>
       <c r="Z71">
         <v>0</v>
@@ -7095,13 +7095,13 @@
         <v>0.7000000000000001</v>
       </c>
       <c r="B72">
-        <v>0.1893998593867317</v>
+        <v>0.1857801353259399</v>
       </c>
       <c r="C72">
-        <v>-2.120430709956809</v>
+        <v>-2.044659663576549</v>
       </c>
       <c r="D72">
-        <v>2.320169290043191</v>
+        <v>2.395940336423451</v>
       </c>
       <c r="E72">
         <v>4.5156</v>
@@ -7128,37 +7128,37 @@
         <v>0.235</v>
       </c>
       <c r="M72">
-        <v>0.88511472</v>
+        <v>0.85486632</v>
       </c>
       <c r="N72">
-        <v>-0.65011472</v>
+        <v>-0.61986632</v>
       </c>
       <c r="O72">
-        <v>-0.1430252384</v>
+        <v>-0.1363705904</v>
       </c>
       <c r="P72">
-        <v>-0.5070894816</v>
+        <v>-0.4834957296</v>
       </c>
       <c r="Q72">
-        <v>-0.4240894816</v>
+        <v>-0.4004957296</v>
       </c>
       <c r="R72">
         <v>2.333333333333334</v>
       </c>
       <c r="S72">
-        <v>0.2134554478554916</v>
+        <v>0.2165563676528523</v>
       </c>
       <c r="T72">
-        <v>2.065421393902331</v>
+        <v>2.062305861484397</v>
       </c>
       <c r="U72">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V72">
-        <v>0.05841050751025809</v>
+        <v>0.06047729193495423</v>
       </c>
       <c r="W72">
-        <v>0.1790903214715489</v>
+        <v>0.1725903214715489</v>
       </c>
       <c r="X72" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="Y72">
-        <v>0.2655023068648096</v>
+        <v>0.2748967815225192</v>
       </c>
       <c r="Z72">
         <v>0</v>
@@ -7177,13 +7177,13 @@
         <v>0.71</v>
       </c>
       <c r="B73">
-        <v>0.1911438593867317</v>
+        <v>0.1875241353259399</v>
       </c>
       <c r="C73">
-        <v>-2.209987510341991</v>
+        <v>-2.134584972704186</v>
       </c>
       <c r="D73">
-        <v>2.297092489658008</v>
+        <v>2.372495027295813</v>
       </c>
       <c r="E73">
         <v>4.582079999999999</v>
@@ -7210,37 +7210,37 @@
         <v>0.235</v>
       </c>
       <c r="M73">
-        <v>0.897759216</v>
+        <v>0.8670786959999999</v>
       </c>
       <c r="N73">
-        <v>-0.662759216</v>
+        <v>-0.6320786959999999</v>
       </c>
       <c r="O73">
-        <v>-0.14580702752</v>
+        <v>-0.13905731312</v>
       </c>
       <c r="P73">
-        <v>-0.51695218848</v>
+        <v>-0.4930213828799999</v>
       </c>
       <c r="Q73">
-        <v>-0.43395218848</v>
+        <v>-0.4100213828799999</v>
       </c>
       <c r="R73">
         <v>2.448275862068965</v>
       </c>
       <c r="S73">
-        <v>0.2202711529539567</v>
+        <v>0.2237031389512265</v>
       </c>
       <c r="T73">
-        <v>2.136642821278273</v>
+        <v>2.133419856707997</v>
       </c>
       <c r="U73">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V73">
-        <v>0.05758782430588827</v>
+        <v>0.05962549909079994</v>
       </c>
       <c r="W73">
-        <v>0.17924679581702</v>
+        <v>0.17274679581702</v>
       </c>
       <c r="X73" t="inlineStr">
         <is>
@@ -7248,7 +7248,7 @@
         </is>
       </c>
       <c r="Y73">
-        <v>0.2617628377540376</v>
+        <v>0.2710249958672725</v>
       </c>
       <c r="Z73">
         <v>0</v>
@@ -7259,13 +7259,13 @@
         <v>0.72</v>
       </c>
       <c r="B74">
-        <v>0.1928878593867317</v>
+        <v>0.1892681353259399</v>
       </c>
       <c r="C74">
-        <v>-2.299089779964749</v>
+        <v>-2.224055883401295</v>
       </c>
       <c r="D74">
-        <v>2.27447022003525</v>
+        <v>2.349504116598705</v>
       </c>
       <c r="E74">
         <v>4.64856</v>
@@ -7292,37 +7292,37 @@
         <v>0.235</v>
       </c>
       <c r="M74">
-        <v>0.910403712</v>
+        <v>0.879291072</v>
       </c>
       <c r="N74">
-        <v>-0.675403712</v>
+        <v>-0.644291072</v>
       </c>
       <c r="O74">
-        <v>-0.14858881664</v>
+        <v>-0.14174403584</v>
       </c>
       <c r="P74">
-        <v>-0.52681489536</v>
+        <v>-0.50254703616</v>
       </c>
       <c r="Q74">
-        <v>-0.44381489536</v>
+        <v>-0.4195470361599999</v>
       </c>
       <c r="R74">
         <v>2.571428571428571</v>
       </c>
       <c r="S74">
-        <v>0.2275736941308838</v>
+        <v>0.2313603939137703</v>
       </c>
       <c r="T74">
-        <v>2.212951493466782</v>
+        <v>2.209613423018997</v>
       </c>
       <c r="U74">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V74">
-        <v>0.05678799341275093</v>
+        <v>0.05879736715898327</v>
       </c>
       <c r="W74">
-        <v>0.1793989236528948</v>
+        <v>0.1728989236528948</v>
       </c>
       <c r="X74" t="inlineStr">
         <is>
@@ -7330,7 +7330,7 @@
         </is>
       </c>
       <c r="Y74">
-        <v>0.2581272427852315</v>
+        <v>0.2672607598135603</v>
       </c>
       <c r="Z74">
         <v>0</v>
@@ -7341,13 +7341,13 @@
         <v>0.73</v>
       </c>
       <c r="B75">
-        <v>0.1946318593867317</v>
+        <v>0.1910121353259399</v>
       </c>
       <c r="C75">
-        <v>-2.387750816818833</v>
+        <v>-2.313085479068081</v>
       </c>
       <c r="D75">
-        <v>2.252289183181166</v>
+        <v>2.326954520931919</v>
       </c>
       <c r="E75">
         <v>4.71504</v>
@@ -7374,37 +7374,37 @@
         <v>0.235</v>
       </c>
       <c r="M75">
-        <v>0.9230482080000001</v>
+        <v>0.891503448</v>
       </c>
       <c r="N75">
-        <v>-0.6880482080000001</v>
+        <v>-0.656503448</v>
       </c>
       <c r="O75">
-        <v>-0.15137060576</v>
+        <v>-0.14443075856</v>
       </c>
       <c r="P75">
-        <v>-0.5366776022400001</v>
+        <v>-0.5120726894400001</v>
       </c>
       <c r="Q75">
-        <v>-0.45367760224</v>
+        <v>-0.42907268944</v>
       </c>
       <c r="R75">
         <v>2.703703703703703</v>
       </c>
       <c r="S75">
-        <v>0.2354171642838795</v>
+        <v>0.2395848529476136</v>
       </c>
       <c r="T75">
-        <v>2.294912659891478</v>
+        <v>2.291450957204885</v>
       </c>
       <c r="U75">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V75">
-        <v>0.05601007569476804</v>
+        <v>0.05799192377324377</v>
       </c>
       <c r="W75">
-        <v>0.1795468836028551</v>
+        <v>0.1730468836028551</v>
       </c>
       <c r="X75" t="inlineStr">
         <is>
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="Y75">
-        <v>0.2545912531580365</v>
+        <v>0.2635996535147445</v>
       </c>
       <c r="Z75">
         <v>0</v>
@@ -7423,13 +7423,13 @@
         <v>0.74</v>
       </c>
       <c r="B76">
-        <v>0.1963758593867317</v>
+        <v>0.1927561353259399</v>
       </c>
       <c r="C76">
-        <v>-2.475983405170389</v>
+        <v>-2.401686345602716</v>
       </c>
       <c r="D76">
-        <v>2.230536594829611</v>
+        <v>2.304833654397283</v>
       </c>
       <c r="E76">
         <v>4.78152</v>
@@ -7456,37 +7456,37 @@
         <v>0.235</v>
       </c>
       <c r="M76">
-        <v>0.9356927039999999</v>
+        <v>0.9037158239999999</v>
       </c>
       <c r="N76">
-        <v>-0.7006927039999999</v>
+        <v>-0.668715824</v>
       </c>
       <c r="O76">
-        <v>-0.15415239488</v>
+        <v>-0.14711748128</v>
       </c>
       <c r="P76">
-        <v>-0.54654030912</v>
+        <v>-0.5215983427199999</v>
       </c>
       <c r="Q76">
-        <v>-0.4635403091199999</v>
+        <v>-0.4385983427199999</v>
       </c>
       <c r="R76">
         <v>2.846153846153846</v>
       </c>
       <c r="S76">
-        <v>0.2438639782947979</v>
+        <v>0.248441962676368</v>
       </c>
       <c r="T76">
-        <v>2.383178531425766</v>
+        <v>2.37958368632815</v>
       </c>
       <c r="U76">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V76">
-        <v>0.05525318277997388</v>
+        <v>0.0572082491276594</v>
       </c>
       <c r="W76">
-        <v>0.179690844635249</v>
+        <v>0.173190844635249</v>
       </c>
       <c r="X76" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="Y76">
-        <v>0.2511508308180631</v>
+        <v>0.2600374960348155</v>
       </c>
       <c r="Z76">
         <v>0</v>
@@ -7505,13 +7505,13 @@
         <v>0.75</v>
       </c>
       <c r="B77">
-        <v>0.1981198593867317</v>
+        <v>0.1945001353259399</v>
       </c>
       <c r="C77">
-        <v>-2.563799840128532</v>
+        <v>-2.489870594825832</v>
       </c>
       <c r="D77">
-        <v>2.209200159871468</v>
+        <v>2.283129405174168</v>
       </c>
       <c r="E77">
         <v>4.848</v>
@@ -7538,37 +7538,37 @@
         <v>0.235</v>
       </c>
       <c r="M77">
-        <v>0.9483372</v>
+        <v>0.9159282</v>
       </c>
       <c r="N77">
-        <v>-0.7133372</v>
+        <v>-0.6809282</v>
       </c>
       <c r="O77">
-        <v>-0.156934184</v>
+        <v>-0.149804204</v>
       </c>
       <c r="P77">
-        <v>-0.556403016</v>
+        <v>-0.531123996</v>
       </c>
       <c r="Q77">
-        <v>-0.473403016</v>
+        <v>-0.448123996</v>
       </c>
       <c r="R77">
         <v>3</v>
       </c>
       <c r="S77">
-        <v>0.2529865374265898</v>
+        <v>0.2580076411834227</v>
       </c>
       <c r="T77">
-        <v>2.478505672682796</v>
+        <v>2.474767033781276</v>
       </c>
       <c r="U77">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V77">
-        <v>0.05451647367624089</v>
+        <v>0.05644547247262394</v>
       </c>
       <c r="W77">
-        <v>0.179830966706779</v>
+        <v>0.173330966706779</v>
       </c>
       <c r="X77" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         </is>
       </c>
       <c r="Y77">
-        <v>0.2478021530738223</v>
+        <v>0.256570329421018</v>
       </c>
       <c r="Z77">
         <v>0</v>
@@ -7587,13 +7587,13 @@
         <v>0.76</v>
       </c>
       <c r="B78">
-        <v>0.1998638593867317</v>
+        <v>0.1962441353259399</v>
       </c>
       <c r="C78">
-        <v>-2.651211950819098</v>
+        <v>-2.577649886593833</v>
       </c>
       <c r="D78">
-        <v>2.188268049180902</v>
+        <v>2.261830113406167</v>
       </c>
       <c r="E78">
         <v>4.91448</v>
@@ -7620,37 +7620,37 @@
         <v>0.235</v>
       </c>
       <c r="M78">
-        <v>0.9609816960000001</v>
+        <v>0.928140576</v>
       </c>
       <c r="N78">
-        <v>-0.7259816960000001</v>
+        <v>-0.693140576</v>
       </c>
       <c r="O78">
-        <v>-0.15971597312</v>
+        <v>-0.15249092672</v>
       </c>
       <c r="P78">
-        <v>-0.5662657228800001</v>
+        <v>-0.54064964928</v>
       </c>
       <c r="Q78">
-        <v>-0.4832657228800001</v>
+        <v>-0.45764964928</v>
       </c>
       <c r="R78">
         <v>3.166666666666667</v>
       </c>
       <c r="S78">
-        <v>0.2628693098193644</v>
+        <v>0.2683704595660654</v>
       </c>
       <c r="T78">
-        <v>2.581776742377913</v>
+        <v>2.577882326855497</v>
       </c>
       <c r="U78">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V78">
-        <v>0.05379915165418509</v>
+        <v>0.05570276888745784</v>
       </c>
       <c r="W78">
-        <v>0.179967401355374</v>
+        <v>0.173467401355374</v>
       </c>
       <c r="X78" t="inlineStr">
         <is>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="Y78">
-        <v>0.2445415984281141</v>
+        <v>0.2531944040338993</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -7669,13 +7669,13 @@
         <v>0.77</v>
       </c>
       <c r="B79">
-        <v>0.2016078593867317</v>
+        <v>0.1979881353259399</v>
       </c>
       <c r="C79">
-        <v>-2.738231122253329</v>
+        <v>-2.665035449685896</v>
       </c>
       <c r="D79">
-        <v>2.167728877746671</v>
+        <v>2.240924550314104</v>
       </c>
       <c r="E79">
         <v>4.98096</v>
@@ -7702,37 +7702,37 @@
         <v>0.235</v>
       </c>
       <c r="M79">
-        <v>0.973626192</v>
+        <v>0.9403529519999999</v>
       </c>
       <c r="N79">
-        <v>-0.738626192</v>
+        <v>-0.7053529519999999</v>
       </c>
       <c r="O79">
-        <v>-0.16249776224</v>
+        <v>-0.15517764944</v>
       </c>
       <c r="P79">
-        <v>-0.57612842976</v>
+        <v>-0.5501753025599999</v>
       </c>
       <c r="Q79">
-        <v>-0.49312842976</v>
+        <v>-0.4671753025599999</v>
       </c>
       <c r="R79">
         <v>3.347826086956522</v>
       </c>
       <c r="S79">
-        <v>0.2736114537245541</v>
+        <v>0.2796343925906769</v>
       </c>
       <c r="T79">
-        <v>2.694027905089996</v>
+        <v>2.689964167153561</v>
       </c>
       <c r="U79">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V79">
-        <v>0.05310046137296191</v>
+        <v>0.05497935630450385</v>
       </c>
       <c r="W79">
-        <v>0.1801002922468627</v>
+        <v>0.1736002922468627</v>
       </c>
       <c r="X79" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         </is>
       </c>
       <c r="Y79">
-        <v>0.2413657335134632</v>
+        <v>0.249906165020472</v>
       </c>
       <c r="Z79">
         <v>0</v>
@@ -7751,13 +7751,13 @@
         <v>0.78</v>
       </c>
       <c r="B80">
-        <v>0.2033518593867317</v>
+        <v>0.1997321353259399</v>
       </c>
       <c r="C80">
-        <v>-2.824868315976452</v>
+        <v>-2.752038101543256</v>
       </c>
       <c r="D80">
-        <v>2.147571684023548</v>
+        <v>2.220401898456744</v>
       </c>
       <c r="E80">
         <v>5.04744</v>
@@ -7784,37 +7784,37 @@
         <v>0.235</v>
       </c>
       <c r="M80">
-        <v>0.9862706880000001</v>
+        <v>0.9525653279999999</v>
       </c>
       <c r="N80">
-        <v>-0.7512706880000001</v>
+        <v>-0.7175653279999999</v>
       </c>
       <c r="O80">
-        <v>-0.16527955136</v>
+        <v>-0.15786437216</v>
       </c>
       <c r="P80">
-        <v>-0.58599113664</v>
+        <v>-0.5597009558399999</v>
       </c>
       <c r="Q80">
-        <v>-0.5029911366399999</v>
+        <v>-0.4767009558399999</v>
       </c>
       <c r="R80">
         <v>3.545454545454546</v>
       </c>
       <c r="S80">
-        <v>0.2853301561665794</v>
+        <v>0.2919223195266167</v>
       </c>
       <c r="T80">
-        <v>2.816483718957724</v>
+        <v>2.812235265660542</v>
       </c>
       <c r="U80">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V80">
-        <v>0.0524196862271547</v>
+        <v>0.05427449276213842</v>
       </c>
       <c r="W80">
-        <v>0.1802297756795952</v>
+        <v>0.1737297756795952</v>
       </c>
       <c r="X80" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="Y80">
-        <v>0.2382713010325214</v>
+        <v>0.2467022398279018</v>
       </c>
       <c r="Z80">
         <v>0</v>
@@ -7833,13 +7833,13 @@
         <v>0.79</v>
       </c>
       <c r="B81">
-        <v>0.2050958593867317</v>
+        <v>0.2014761353259399</v>
       </c>
       <c r="C81">
-        <v>-2.911134089574834</v>
+        <v>-2.838668266933672</v>
       </c>
       <c r="D81">
-        <v>2.127785910425166</v>
+        <v>2.200251733066328</v>
       </c>
       <c r="E81">
         <v>5.11392</v>
@@ -7866,37 +7866,37 @@
         <v>0.235</v>
       </c>
       <c r="M81">
-        <v>0.9989151840000001</v>
+        <v>0.9647777040000001</v>
       </c>
       <c r="N81">
-        <v>-0.7639151840000001</v>
+        <v>-0.7297777040000001</v>
       </c>
       <c r="O81">
-        <v>-0.16806134048</v>
+        <v>-0.16055109488</v>
       </c>
       <c r="P81">
-        <v>-0.59585384352</v>
+        <v>-0.56922660912</v>
       </c>
       <c r="Q81">
-        <v>-0.5128538435200001</v>
+        <v>-0.48622660912</v>
       </c>
       <c r="R81">
         <v>3.761904761904763</v>
       </c>
       <c r="S81">
-        <v>0.2981649255078451</v>
+        <v>0.3053805252183603</v>
       </c>
       <c r="T81">
-        <v>2.950601991289044</v>
+        <v>2.946151230691996</v>
       </c>
       <c r="U81">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V81">
-        <v>0.0517561458951654</v>
+        <v>0.05358747386641513</v>
       </c>
       <c r="W81">
-        <v>0.1803559810507395</v>
+        <v>0.1738559810507395</v>
       </c>
       <c r="X81" t="inlineStr">
         <is>
@@ -7904,7 +7904,7 @@
         </is>
       </c>
       <c r="Y81">
-        <v>0.2352552086143882</v>
+        <v>0.2435794266655233</v>
       </c>
       <c r="Z81">
         <v>0</v>
@@ -7915,13 +7915,13 @@
         <v>0.8</v>
       </c>
       <c r="B82">
-        <v>0.2068398593867317</v>
+        <v>0.2032201353259399</v>
       </c>
       <c r="C82">
-        <v>-2.997038615114656</v>
+        <v>-2.924935995608769</v>
       </c>
       <c r="D82">
-        <v>2.108361384885344</v>
+        <v>2.180464004391232</v>
       </c>
       <c r="E82">
         <v>5.180400000000001</v>
@@ -7948,37 +7948,37 @@
         <v>0.235</v>
       </c>
       <c r="M82">
-        <v>1.01155968</v>
+        <v>0.9769900800000001</v>
       </c>
       <c r="N82">
-        <v>-0.7765596800000002</v>
+        <v>-0.7419900800000001</v>
       </c>
       <c r="O82">
-        <v>-0.1708431296</v>
+        <v>-0.1632378176</v>
       </c>
       <c r="P82">
-        <v>-0.6057165504000002</v>
+        <v>-0.5787522624000001</v>
       </c>
       <c r="Q82">
-        <v>-0.5227165504000002</v>
+        <v>-0.4957522624000001</v>
       </c>
       <c r="R82">
         <v>4.000000000000001</v>
       </c>
       <c r="S82">
-        <v>0.3122831717832373</v>
+        <v>0.3201845514792784</v>
       </c>
       <c r="T82">
-        <v>3.098132090853496</v>
+        <v>3.093458792226596</v>
       </c>
       <c r="U82">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V82">
-        <v>0.05110919407147583</v>
+        <v>0.05291763044308494</v>
       </c>
       <c r="W82">
-        <v>0.1804790312876053</v>
+        <v>0.1739790312876053</v>
       </c>
       <c r="X82" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="Y82">
-        <v>0.2323145185067084</v>
+        <v>0.2405346838322043</v>
       </c>
       <c r="Z82">
         <v>0</v>
@@ -7997,13 +7997,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="B83">
-        <v>0.2085838593867317</v>
+        <v>0.2049641353259399</v>
       </c>
       <c r="C83">
-        <v>-3.082591696579758</v>
+        <v>-3.010850979017063</v>
       </c>
       <c r="D83">
-        <v>2.089288303420242</v>
+        <v>2.161029020982936</v>
       </c>
       <c r="E83">
         <v>5.24688</v>
@@ -8030,37 +8030,37 @@
         <v>0.235</v>
       </c>
       <c r="M83">
-        <v>1.024204176</v>
+        <v>0.989202456</v>
       </c>
       <c r="N83">
-        <v>-0.789204176</v>
+        <v>-0.754202456</v>
       </c>
       <c r="O83">
-        <v>-0.17362491872</v>
+        <v>-0.16592454032</v>
       </c>
       <c r="P83">
-        <v>-0.6155792572800001</v>
+        <v>-0.58827791568</v>
       </c>
       <c r="Q83">
-        <v>-0.5325792572800001</v>
+        <v>-0.50527791568</v>
       </c>
       <c r="R83">
         <v>4.263157894736843</v>
       </c>
       <c r="S83">
-        <v>0.327887549245513</v>
+        <v>0.3365468962939773</v>
       </c>
       <c r="T83">
-        <v>3.261191674582628</v>
+        <v>3.256272412870101</v>
       </c>
       <c r="U83">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V83">
-        <v>0.05047821636688972</v>
+        <v>0.05226432636354069</v>
       </c>
       <c r="W83">
-        <v>0.1805990432470176</v>
+        <v>0.1740990432470176</v>
       </c>
       <c r="X83" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="Y83">
-        <v>0.2294464380313169</v>
+        <v>0.2375651198342759</v>
       </c>
       <c r="Z83">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="B84">
-        <v>0.2103278593867317</v>
+        <v>0.2067081353259399</v>
       </c>
       <c r="C84">
-        <v>-3.167802786371483</v>
+        <v>-3.096422566131099</v>
       </c>
       <c r="D84">
-        <v>2.070557213628517</v>
+        <v>2.141937433868901</v>
       </c>
       <c r="E84">
         <v>5.31336</v>
@@ -8112,37 +8112,37 @@
         <v>0.235</v>
       </c>
       <c r="M84">
-        <v>1.036848672</v>
+        <v>1.001414832</v>
       </c>
       <c r="N84">
-        <v>-0.8018486720000001</v>
+        <v>-0.766414832</v>
       </c>
       <c r="O84">
-        <v>-0.17640670784</v>
+        <v>-0.16861126304</v>
       </c>
       <c r="P84">
-        <v>-0.6254419641600001</v>
+        <v>-0.5978035689600001</v>
       </c>
       <c r="Q84">
-        <v>-0.54244196416</v>
+        <v>-0.5148035689600001</v>
       </c>
       <c r="R84">
         <v>4.555555555555557</v>
       </c>
       <c r="S84">
-        <v>0.3452257464258193</v>
+        <v>0.3547272794214206</v>
       </c>
       <c r="T84">
-        <v>3.442368989837218</v>
+        <v>3.43717643580733</v>
       </c>
       <c r="U84">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V84">
-        <v>0.04986262836241545</v>
+        <v>0.05162695652983897</v>
       </c>
       <c r="W84">
-        <v>0.1807161280854686</v>
+        <v>0.1742161280854686</v>
       </c>
       <c r="X84" t="inlineStr">
         <is>
@@ -8150,7 +8150,7 @@
         </is>
       </c>
       <c r="Y84">
-        <v>0.2266483107382521</v>
+        <v>0.2346679842265408</v>
       </c>
       <c r="Z84">
         <v>0</v>
@@ -8161,13 +8161,13 @@
         <v>0.8300000000000001</v>
       </c>
       <c r="B85">
-        <v>0.2120718593867317</v>
+        <v>0.2084521353259399</v>
       </c>
       <c r="C85">
-        <v>-3.252681000928838</v>
+        <v>-3.181659778442951</v>
       </c>
       <c r="D85">
-        <v>2.052158999071162</v>
+        <v>2.12318022155705</v>
       </c>
       <c r="E85">
         <v>5.379840000000001</v>
@@ -8194,37 +8194,37 @@
         <v>0.235</v>
       </c>
       <c r="M85">
-        <v>1.049493168</v>
+        <v>1.013627208</v>
       </c>
       <c r="N85">
-        <v>-0.8144931680000002</v>
+        <v>-0.7786272080000002</v>
       </c>
       <c r="O85">
-        <v>-0.17918849696</v>
+        <v>-0.17129798576</v>
       </c>
       <c r="P85">
-        <v>-0.6353046710400001</v>
+        <v>-0.6073292222400002</v>
       </c>
       <c r="Q85">
-        <v>-0.5523046710400001</v>
+        <v>-0.5243292222400002</v>
       </c>
       <c r="R85">
         <v>4.882352941176473</v>
       </c>
       <c r="S85">
-        <v>0.364603731509691</v>
+        <v>0.3750465311520924</v>
       </c>
       <c r="T85">
-        <v>3.644861283357055</v>
+        <v>3.639363284972467</v>
       </c>
       <c r="U85">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V85">
-        <v>0.04926187380383213</v>
+        <v>0.05100494500538307</v>
       </c>
       <c r="W85">
-        <v>0.1808303916025111</v>
+        <v>0.1743303916025111</v>
       </c>
       <c r="X85" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="Y85">
-        <v>0.2239176081992369</v>
+        <v>0.2318406591153777</v>
       </c>
       <c r="Z85">
         <v>0</v>
@@ -8243,13 +8243,13 @@
         <v>0.84</v>
       </c>
       <c r="B86">
-        <v>0.2138158593867317</v>
+        <v>0.2101961353259399</v>
       </c>
       <c r="C86">
-        <v>-3.337235135523231</v>
+        <v>-3.266571324178699</v>
       </c>
       <c r="D86">
-        <v>2.034084864476769</v>
+        <v>2.104748675821301</v>
       </c>
       <c r="E86">
         <v>5.44632</v>
@@ -8276,37 +8276,37 @@
         <v>0.235</v>
       </c>
       <c r="M86">
-        <v>1.062137664</v>
+        <v>1.025839584</v>
       </c>
       <c r="N86">
-        <v>-0.827137664</v>
+        <v>-0.7908395840000001</v>
       </c>
       <c r="O86">
-        <v>-0.18197028608</v>
+        <v>-0.17398470848</v>
       </c>
       <c r="P86">
-        <v>-0.64516737792</v>
+        <v>-0.6168548755200001</v>
       </c>
       <c r="Q86">
-        <v>-0.56216737792</v>
+        <v>-0.5338548755200001</v>
       </c>
       <c r="R86">
         <v>5.249999999999999</v>
       </c>
       <c r="S86">
-        <v>0.3864039647290465</v>
+        <v>0.3979056893490979</v>
       </c>
       <c r="T86">
-        <v>3.872665113566869</v>
+        <v>3.866823490283244</v>
       </c>
       <c r="U86">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V86">
-        <v>0.04867542292521508</v>
+        <v>0.05039774327912851</v>
       </c>
       <c r="W86">
-        <v>0.1809419345596241</v>
+        <v>0.1744419345596241</v>
       </c>
       <c r="X86" t="inlineStr">
         <is>
@@ -8314,7 +8314,7 @@
         </is>
       </c>
       <c r="Y86">
-        <v>0.2212519223873413</v>
+        <v>0.229080651268766</v>
       </c>
       <c r="Z86">
         <v>0</v>
@@ -8325,13 +8325,13 @@
         <v>0.85</v>
       </c>
       <c r="B87">
-        <v>0.2155598593867317</v>
+        <v>0.2119401353259399</v>
       </c>
       <c r="C87">
-        <v>-3.421473678278207</v>
+        <v>-3.351165611778874</v>
       </c>
       <c r="D87">
-        <v>2.016326321721792</v>
+        <v>2.086634388221125</v>
       </c>
       <c r="E87">
         <v>5.512799999999999</v>
@@ -8358,37 +8358,37 @@
         <v>0.235</v>
       </c>
       <c r="M87">
-        <v>1.07478216</v>
+        <v>1.03805196</v>
       </c>
       <c r="N87">
-        <v>-0.8397821599999998</v>
+        <v>-0.80305196</v>
       </c>
       <c r="O87">
-        <v>-0.1847520752</v>
+        <v>-0.1766714312</v>
       </c>
       <c r="P87">
-        <v>-0.6550300847999999</v>
+        <v>-0.6263805287999999</v>
       </c>
       <c r="Q87">
-        <v>-0.5720300847999999</v>
+        <v>-0.5433805288</v>
       </c>
       <c r="R87">
         <v>5.666666666666666</v>
       </c>
       <c r="S87">
-        <v>0.411110895710983</v>
+        <v>0.4238127353057045</v>
       </c>
       <c r="T87">
-        <v>4.13084278780466</v>
+        <v>4.124611722968794</v>
       </c>
       <c r="U87">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V87">
-        <v>0.0481027708908008</v>
+        <v>0.04980482865231525</v>
       </c>
       <c r="W87">
-        <v>0.1810508529765697</v>
+        <v>0.1745508529765697</v>
       </c>
       <c r="X87" t="inlineStr">
         <is>
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="Y87">
-        <v>0.2186489585945491</v>
+        <v>0.2263855847832511</v>
       </c>
       <c r="Z87">
         <v>0</v>
@@ -8407,13 +8407,13 @@
         <v>0.86</v>
       </c>
       <c r="B88">
-        <v>0.2173038593867317</v>
+        <v>0.2136841353259399</v>
       </c>
       <c r="C88">
-        <v>-3.505404823461158</v>
+        <v>-3.435450762688725</v>
       </c>
       <c r="D88">
-        <v>1.998875176538841</v>
+        <v>2.068829237311275</v>
       </c>
       <c r="E88">
         <v>5.57928</v>
@@ -8440,37 +8440,37 @@
         <v>0.235</v>
       </c>
       <c r="M88">
-        <v>1.087426656</v>
+        <v>1.050264336</v>
       </c>
       <c r="N88">
-        <v>-0.8524266559999999</v>
+        <v>-0.8152643359999999</v>
       </c>
       <c r="O88">
-        <v>-0.18753386432</v>
+        <v>-0.17935815392</v>
       </c>
       <c r="P88">
-        <v>-0.6648927916799999</v>
+        <v>-0.6359061820799999</v>
       </c>
       <c r="Q88">
-        <v>-0.5818927916799999</v>
+        <v>-0.5529061820799999</v>
       </c>
       <c r="R88">
         <v>6.142857142857142</v>
       </c>
       <c r="S88">
-        <v>0.4393473882617675</v>
+        <v>0.4534207878275405</v>
       </c>
       <c r="T88">
-        <v>4.425902986933565</v>
+        <v>4.419226846037994</v>
       </c>
       <c r="U88">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V88">
-        <v>0.04754343634555892</v>
+        <v>0.04922570273775344</v>
       </c>
       <c r="W88">
-        <v>0.1811572384070747</v>
+        <v>0.1746572384070747</v>
       </c>
       <c r="X88" t="inlineStr">
         <is>
@@ -8478,7 +8478,7 @@
         </is>
       </c>
       <c r="Y88">
-        <v>0.2161065288434496</v>
+        <v>0.2237531942625156</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -8489,13 +8489,13 @@
         <v>0.87</v>
       </c>
       <c r="B89">
-        <v>0.2190478593867317</v>
+        <v>0.2154281353259399</v>
       </c>
       <c r="C89">
-        <v>-3.589036484090709</v>
+        <v>-3.519434623499214</v>
       </c>
       <c r="D89">
-        <v>1.981723515909291</v>
+        <v>2.051325376500786</v>
       </c>
       <c r="E89">
         <v>5.64576</v>
@@ -8522,37 +8522,37 @@
         <v>0.235</v>
       </c>
       <c r="M89">
-        <v>1.100071152</v>
+        <v>1.062476712</v>
       </c>
       <c r="N89">
-        <v>-0.865071152</v>
+        <v>-0.8274767120000001</v>
       </c>
       <c r="O89">
-        <v>-0.19031565344</v>
+        <v>-0.18204487664</v>
       </c>
       <c r="P89">
-        <v>-0.6747554985599999</v>
+        <v>-0.64543183536</v>
       </c>
       <c r="Q89">
-        <v>-0.59175549856</v>
+        <v>-0.56243183536</v>
       </c>
       <c r="R89">
         <v>6.692307692307692</v>
       </c>
       <c r="S89">
-        <v>0.4719279565895958</v>
+        <v>0.4875839253527359</v>
       </c>
       <c r="T89">
-        <v>4.766357062851531</v>
+        <v>4.7591673726563</v>
       </c>
       <c r="U89">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V89">
-        <v>0.04699696006572492</v>
+        <v>0.04865989006260684</v>
       </c>
       <c r="W89">
-        <v>0.1812611781954991</v>
+        <v>0.1747611781954991</v>
       </c>
       <c r="X89" t="inlineStr">
         <is>
@@ -8560,7 +8560,7 @@
         </is>
       </c>
       <c r="Y89">
-        <v>0.2136225457532951</v>
+        <v>0.2211813184663948</v>
       </c>
       <c r="Z89">
         <v>0</v>
@@ -8571,13 +8571,13 @@
         <v>0.88</v>
       </c>
       <c r="B90">
-        <v>0.2207918593867317</v>
+        <v>0.2171721353259399</v>
       </c>
       <c r="C90">
-        <v>-3.672376303900555</v>
+        <v>-3.603124777476839</v>
       </c>
       <c r="D90">
-        <v>1.964863696099444</v>
+        <v>2.03411522252316</v>
       </c>
       <c r="E90">
         <v>5.71224</v>
@@ -8604,37 +8604,37 @@
         <v>0.235</v>
       </c>
       <c r="M90">
-        <v>1.112715648</v>
+        <v>1.074689088</v>
       </c>
       <c r="N90">
-        <v>-0.877715648</v>
+        <v>-0.839689088</v>
       </c>
       <c r="O90">
-        <v>-0.19309744256</v>
+        <v>-0.18473159936</v>
       </c>
       <c r="P90">
-        <v>-0.6846182054400001</v>
+        <v>-0.65495748864</v>
       </c>
       <c r="Q90">
-        <v>-0.6016182054400001</v>
+        <v>-0.5719574886400001</v>
       </c>
       <c r="R90">
         <v>7.333333333333334</v>
       </c>
       <c r="S90">
-        <v>0.5099386196387288</v>
+        <v>0.5274409191321308</v>
       </c>
       <c r="T90">
-        <v>5.163553484755826</v>
+        <v>5.155764653710993</v>
       </c>
       <c r="U90">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V90">
-        <v>0.04646290370134167</v>
+        <v>0.04810693676644087</v>
       </c>
       <c r="W90">
-        <v>0.1813627557160048</v>
+        <v>0.1748627557160048</v>
       </c>
       <c r="X90" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="Y90">
-        <v>0.2111950168242803</v>
+        <v>0.218667894392913</v>
       </c>
       <c r="Z90">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0.89</v>
       </c>
       <c r="B91">
-        <v>0.2225358593867317</v>
+        <v>0.2189161353259399</v>
       </c>
       <c r="C91">
-        <v>-3.755431668697755</v>
+        <v>-3.686528555517897</v>
       </c>
       <c r="D91">
-        <v>1.948288331302245</v>
+        <v>2.017191444482103</v>
       </c>
       <c r="E91">
         <v>5.77872</v>
@@ -8686,37 +8686,37 @@
         <v>0.235</v>
       </c>
       <c r="M91">
-        <v>1.125360144</v>
+        <v>1.086901464</v>
       </c>
       <c r="N91">
-        <v>-0.8903601440000001</v>
+        <v>-0.8519014639999999</v>
       </c>
       <c r="O91">
-        <v>-0.19587923168</v>
+        <v>-0.18741832208</v>
       </c>
       <c r="P91">
-        <v>-0.6944809123200001</v>
+        <v>-0.6644831419199999</v>
       </c>
       <c r="Q91">
-        <v>-0.61148091232</v>
+        <v>-0.5814831419199999</v>
       </c>
       <c r="R91">
         <v>8.090909090909092</v>
       </c>
       <c r="S91">
-        <v>0.5548603123331588</v>
+        <v>0.5745446390532335</v>
       </c>
       <c r="T91">
-        <v>5.632967437915447</v>
+        <v>5.624470531321084</v>
       </c>
       <c r="U91">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V91">
-        <v>0.04594084860357379</v>
+        <v>0.04756640938704265</v>
       </c>
       <c r="W91">
-        <v>0.1814620505956003</v>
+        <v>0.1749620505956002</v>
       </c>
       <c r="X91" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="Y91">
-        <v>0.2088220391071536</v>
+        <v>0.2162109517592848</v>
       </c>
       <c r="Z91">
         <v>0</v>
@@ -8735,13 +8735,13 @@
         <v>0.9</v>
       </c>
       <c r="B92">
-        <v>0.2242798593867317</v>
+        <v>0.2206601353259399</v>
       </c>
       <c r="C92">
-        <v>-3.838209717150906</v>
+        <v>-3.769653046560409</v>
       </c>
       <c r="D92">
-        <v>1.931990282849094</v>
+        <v>2.000546953439591</v>
       </c>
       <c r="E92">
         <v>5.8452</v>
@@ -8768,37 +8768,37 @@
         <v>0.235</v>
       </c>
       <c r="M92">
-        <v>1.13800464</v>
+        <v>1.09911384</v>
       </c>
       <c r="N92">
-        <v>-0.9030046400000001</v>
+        <v>-0.86411384</v>
       </c>
       <c r="O92">
-        <v>-0.1986610208</v>
+        <v>-0.1901050448</v>
       </c>
       <c r="P92">
-        <v>-0.7043436192000001</v>
+        <v>-0.6740087952</v>
       </c>
       <c r="Q92">
-        <v>-0.6213436192000001</v>
+        <v>-0.5910087952</v>
       </c>
       <c r="R92">
         <v>9.000000000000002</v>
       </c>
       <c r="S92">
-        <v>0.6087663435664746</v>
+        <v>0.6310691029585569</v>
       </c>
       <c r="T92">
-        <v>6.196264181706992</v>
+        <v>6.186917584453192</v>
       </c>
       <c r="U92">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V92">
-        <v>0.04543039473020074</v>
+        <v>0.04703789372718662</v>
       </c>
       <c r="W92">
-        <v>0.1815591389223158</v>
+        <v>0.1750591389223158</v>
       </c>
       <c r="X92" t="inlineStr">
         <is>
@@ -8806,7 +8806,7 @@
         </is>
       </c>
       <c r="Y92">
-        <v>0.2065017942281852</v>
+        <v>0.2138086078508483</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -8817,13 +8817,13 @@
         <v>0.91</v>
       </c>
       <c r="B93">
-        <v>0.2260238593867317</v>
+        <v>0.2224041353259399</v>
       </c>
       <c r="C93">
-        <v>-3.920717351041359</v>
+        <v>-3.852505107484813</v>
       </c>
       <c r="D93">
-        <v>1.91596264895864</v>
+        <v>1.984174892515187</v>
       </c>
       <c r="E93">
         <v>5.91168</v>
@@ -8850,37 +8850,37 @@
         <v>0.235</v>
       </c>
       <c r="M93">
-        <v>1.150649136</v>
+        <v>1.111326216</v>
       </c>
       <c r="N93">
-        <v>-0.915649136</v>
+        <v>-0.8763262159999999</v>
       </c>
       <c r="O93">
-        <v>-0.20144280992</v>
+        <v>-0.19279176752</v>
       </c>
       <c r="P93">
-        <v>-0.71420632608</v>
+        <v>-0.6835344484799999</v>
       </c>
       <c r="Q93">
-        <v>-0.63120632608</v>
+        <v>-0.6005344484799999</v>
       </c>
       <c r="R93">
         <v>10.11111111111111</v>
       </c>
       <c r="S93">
-        <v>0.6746514928516387</v>
+        <v>0.7001545588428412</v>
       </c>
       <c r="T93">
-        <v>6.884737979674437</v>
+        <v>6.87435287161466</v>
       </c>
       <c r="U93">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V93">
-        <v>0.04493115962327546</v>
+        <v>0.04652099379611863</v>
       </c>
       <c r="W93">
-        <v>0.181654093439653</v>
+        <v>0.175154093439653</v>
       </c>
       <c r="X93" t="inlineStr">
         <is>
@@ -8888,7 +8888,7 @@
         </is>
       </c>
       <c r="Y93">
-        <v>0.2042325437421612</v>
+        <v>0.2114590627096302</v>
       </c>
       <c r="Z93">
         <v>0</v>
@@ -8899,13 +8899,13 @@
         <v>0.92</v>
       </c>
       <c r="B94">
-        <v>0.2277678593867317</v>
+        <v>0.2241481353259399</v>
       </c>
       <c r="C94">
-        <v>-4.002961245008358</v>
+        <v>-3.935091372532432</v>
       </c>
       <c r="D94">
-        <v>1.900198754991642</v>
+        <v>1.968068627467567</v>
       </c>
       <c r="E94">
         <v>5.97816</v>
@@ -8932,37 +8932,37 @@
         <v>0.235</v>
       </c>
       <c r="M94">
-        <v>1.163293632</v>
+        <v>1.123538592</v>
       </c>
       <c r="N94">
-        <v>-0.928293632</v>
+        <v>-0.8885385920000001</v>
       </c>
       <c r="O94">
-        <v>-0.20422459904</v>
+        <v>-0.19547849024</v>
       </c>
       <c r="P94">
-        <v>-0.72406903296</v>
+        <v>-0.69306010176</v>
       </c>
       <c r="Q94">
-        <v>-0.64106903296</v>
+        <v>-0.61006010176</v>
       </c>
       <c r="R94">
         <v>11.50000000000001</v>
       </c>
       <c r="S94">
-        <v>0.7570079294580937</v>
+        <v>0.7865113786981964</v>
       </c>
       <c r="T94">
-        <v>7.745330227133744</v>
+        <v>7.733646980566493</v>
       </c>
       <c r="U94">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V94">
-        <v>0.04444277745345725</v>
+        <v>0.04601533082007387</v>
       </c>
       <c r="W94">
-        <v>0.1817469837283524</v>
+        <v>0.1752469837283524</v>
       </c>
       <c r="X94" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         </is>
       </c>
       <c r="Y94">
-        <v>0.2020126247884421</v>
+        <v>0.2091605946366993</v>
       </c>
       <c r="Z94">
         <v>0</v>
@@ -8981,13 +8981,13 @@
         <v>0.93</v>
       </c>
       <c r="B95">
-        <v>0.2295118593867317</v>
+        <v>0.2258921353259399</v>
       </c>
       <c r="C95">
-        <v>-4.084947855817019</v>
+        <v>-4.017418262268934</v>
       </c>
       <c r="D95">
-        <v>1.884692144182981</v>
+        <v>1.952221737731066</v>
       </c>
       <c r="E95">
         <v>6.04464</v>
@@ -9014,37 +9014,37 @@
         <v>0.235</v>
       </c>
       <c r="M95">
-        <v>1.175938128</v>
+        <v>1.135750968</v>
       </c>
       <c r="N95">
-        <v>-0.9409381280000001</v>
+        <v>-0.900750968</v>
       </c>
       <c r="O95">
-        <v>-0.20700638816</v>
+        <v>-0.19816521296</v>
       </c>
       <c r="P95">
-        <v>-0.73393173984</v>
+        <v>-0.70258575504</v>
       </c>
       <c r="Q95">
-        <v>-0.6509317398400001</v>
+        <v>-0.6195857550399999</v>
       </c>
       <c r="R95">
         <v>13.2857142857143</v>
       </c>
       <c r="S95">
-        <v>0.8628947765235357</v>
+        <v>0.8975415756550816</v>
       </c>
       <c r="T95">
-        <v>8.851805973867137</v>
+        <v>8.838453692075992</v>
       </c>
       <c r="U95">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V95">
-        <v>0.04396489812600072</v>
+        <v>0.04552054231663221</v>
       </c>
       <c r="W95">
-        <v>0.1818378763764347</v>
+        <v>0.1753378763764347</v>
       </c>
       <c r="X95" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="Y95">
-        <v>0.199840446027276</v>
+        <v>0.2069115559846919</v>
       </c>
       <c r="Z95">
         <v>0</v>
@@ -9063,13 +9063,13 @@
         <v>0.9400000000000001</v>
       </c>
       <c r="B96">
-        <v>0.2312558593867317</v>
+        <v>0.22763613532594</v>
       </c>
       <c r="C96">
-        <v>-4.166683431176217</v>
+        <v>-4.099491992118189</v>
       </c>
       <c r="D96">
-        <v>1.869436568823783</v>
+        <v>1.936628007881812</v>
       </c>
       <c r="E96">
         <v>6.111120000000001</v>
@@ -9096,37 +9096,37 @@
         <v>0.235</v>
       </c>
       <c r="M96">
-        <v>1.188582624</v>
+        <v>1.147963344</v>
       </c>
       <c r="N96">
-        <v>-0.9535826240000002</v>
+        <v>-0.9129633440000001</v>
       </c>
       <c r="O96">
-        <v>-0.20978817728</v>
+        <v>-0.20085193568</v>
       </c>
       <c r="P96">
-        <v>-0.7437944467200002</v>
+        <v>-0.7121114083200001</v>
       </c>
       <c r="Q96">
-        <v>-0.6607944467200002</v>
+        <v>-0.62911140832</v>
       </c>
       <c r="R96">
         <v>15.66666666666668</v>
       </c>
       <c r="S96">
-        <v>1.004077239277458</v>
+        <v>1.045581838264263</v>
       </c>
       <c r="T96">
-        <v>10.32710696951166</v>
+        <v>10.311529307422</v>
       </c>
       <c r="U96">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V96">
-        <v>0.04349718644380922</v>
+        <v>0.0450362812281574</v>
       </c>
       <c r="W96">
-        <v>0.1819268351383875</v>
+        <v>0.1754268351383875</v>
       </c>
       <c r="X96" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         </is>
       </c>
       <c r="Y96">
-        <v>0.1977144838354965</v>
+        <v>0.2047103692188973</v>
       </c>
       <c r="Z96">
         <v>0</v>
@@ -9145,13 +9145,13 @@
         <v>0.9500000000000001</v>
       </c>
       <c r="B97">
-        <v>0.2329998593867317</v>
+        <v>0.22938013532594</v>
       </c>
       <c r="C97">
-        <v>-4.248174018131633</v>
+        <v>-4.181318580490392</v>
       </c>
       <c r="D97">
-        <v>1.854425981868367</v>
+        <v>1.921281419509608</v>
       </c>
       <c r="E97">
         <v>6.1776</v>
@@ -9178,37 +9178,37 @@
         <v>0.235</v>
       </c>
       <c r="M97">
-        <v>1.20122712</v>
+        <v>1.16017572</v>
       </c>
       <c r="N97">
-        <v>-0.96622712</v>
+        <v>-0.92517572</v>
       </c>
       <c r="O97">
-        <v>-0.2125699664</v>
+        <v>-0.2035386584</v>
       </c>
       <c r="P97">
-        <v>-0.7536571536</v>
+        <v>-0.7216370616000001</v>
       </c>
       <c r="Q97">
-        <v>-0.6706571535999999</v>
+        <v>-0.6386370616000001</v>
       </c>
       <c r="R97">
         <v>19.00000000000003</v>
       </c>
       <c r="S97">
-        <v>1.201732687132951</v>
+        <v>1.252838205917115</v>
       </c>
       <c r="T97">
-        <v>12.392528363414</v>
+        <v>12.3738351689064</v>
       </c>
       <c r="U97">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V97">
-        <v>0.04303932132334808</v>
+        <v>0.04456221510996627</v>
       </c>
       <c r="W97">
-        <v>0.1820139210842992</v>
+        <v>0.1755139210842992</v>
       </c>
       <c r="X97" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         </is>
       </c>
       <c r="Y97">
-        <v>0.1956332787424913</v>
+        <v>0.2025555232271194</v>
       </c>
       <c r="Z97">
         <v>0</v>
@@ -9227,13 +9227,13 @@
         <v>0.96</v>
       </c>
       <c r="B98">
-        <v>0.2347438593867317</v>
+        <v>0.2311241353259399</v>
       </c>
       <c r="C98">
-        <v>-4.32942547105768</v>
+        <v>-4.26290385652675</v>
       </c>
       <c r="D98">
-        <v>1.839654528942319</v>
+        <v>1.90617614347325</v>
       </c>
       <c r="E98">
         <v>6.244079999999999</v>
@@ -9260,37 +9260,37 @@
         <v>0.235</v>
       </c>
       <c r="M98">
-        <v>1.213871616</v>
+        <v>1.172388096</v>
       </c>
       <c r="N98">
-        <v>-0.9788716159999998</v>
+        <v>-0.9373880959999999</v>
       </c>
       <c r="O98">
-        <v>-0.21535175552</v>
+        <v>-0.20622538112</v>
       </c>
       <c r="P98">
-        <v>-0.7635198604799999</v>
+        <v>-0.73116271488</v>
       </c>
       <c r="Q98">
-        <v>-0.6805198604799998</v>
+        <v>-0.64816271488</v>
       </c>
       <c r="R98">
         <v>23.99999999999998</v>
       </c>
       <c r="S98">
-        <v>1.498215858916185</v>
+        <v>1.563722757396391</v>
       </c>
       <c r="T98">
-        <v>15.49066045426746</v>
+        <v>15.46729396113296</v>
       </c>
       <c r="U98">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V98">
-        <v>0.04259099505956321</v>
+        <v>0.04409802536923746</v>
       </c>
       <c r="W98">
-        <v>0.1820991927396711</v>
+        <v>0.1755991927396711</v>
       </c>
       <c r="X98" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         </is>
       </c>
       <c r="Y98">
-        <v>0.1935954320889237</v>
+        <v>0.2004455698601703</v>
       </c>
       <c r="Z98">
         <v>0</v>
@@ -9309,13 +9309,13 @@
         <v>0.97</v>
       </c>
       <c r="B99">
-        <v>0.2364878593867317</v>
+        <v>0.2328681353259399</v>
       </c>
       <c r="C99">
-        <v>-4.410443459270495</v>
+        <v>-4.344253467481686</v>
       </c>
       <c r="D99">
-        <v>1.825116540729504</v>
+        <v>1.891306532518313</v>
       </c>
       <c r="E99">
         <v>6.31056</v>
@@ -9342,37 +9342,37 @@
         <v>0.235</v>
       </c>
       <c r="M99">
-        <v>1.226516112</v>
+        <v>1.184600472</v>
       </c>
       <c r="N99">
-        <v>-0.9915161119999999</v>
+        <v>-0.9496004719999999</v>
       </c>
       <c r="O99">
-        <v>-0.21813354464</v>
+        <v>-0.20891210384</v>
       </c>
       <c r="P99">
-        <v>-0.7733825673599999</v>
+        <v>-0.7406883681599998</v>
       </c>
       <c r="Q99">
-        <v>-0.6903825673599999</v>
+        <v>-0.6576883681599999</v>
       </c>
       <c r="R99">
         <v>32.33333333333331</v>
       </c>
       <c r="S99">
-        <v>1.992354478554914</v>
+        <v>2.081863676528521</v>
       </c>
       <c r="T99">
-        <v>20.65421393902329</v>
+        <v>20.62305861484396</v>
       </c>
       <c r="U99">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V99">
-        <v>0.04215191263626874</v>
+        <v>0.0436434065509979</v>
       </c>
       <c r="W99">
-        <v>0.1821827062165817</v>
+        <v>0.1756827062165817</v>
       </c>
       <c r="X99" t="inlineStr">
         <is>
@@ -9380,7 +9380,7 @@
         </is>
       </c>
       <c r="Y99">
-        <v>0.1915996028921306</v>
+        <v>0.1983791206863541</v>
       </c>
       <c r="Z99">
         <v>0</v>
@@ -9391,13 +9391,13 @@
         <v>0.98</v>
       </c>
       <c r="B100">
-        <v>0.2382318593867317</v>
+        <v>0.2346121353259399</v>
       </c>
       <c r="C100">
-        <v>-4.49123347428277</v>
+        <v>-4.425372885762199</v>
       </c>
       <c r="D100">
-        <v>1.81080652571723</v>
+        <v>1.876667114237801</v>
       </c>
       <c r="E100">
         <v>6.37704</v>
@@ -9424,37 +9424,37 @@
         <v>0.235</v>
       </c>
       <c r="M100">
-        <v>1.239160608</v>
+        <v>1.196812848</v>
       </c>
       <c r="N100">
-        <v>-1.004160608</v>
+        <v>-0.961812848</v>
       </c>
       <c r="O100">
-        <v>-0.22091533376</v>
+        <v>-0.21159882656</v>
       </c>
       <c r="P100">
-        <v>-0.7832452742399999</v>
+        <v>-0.7502140214399999</v>
       </c>
       <c r="Q100">
-        <v>-0.7002452742399998</v>
+        <v>-0.66721402144</v>
       </c>
       <c r="R100">
         <v>48.99999999999996</v>
       </c>
       <c r="S100">
-        <v>2.98063171783237</v>
+        <v>3.118145514792781</v>
       </c>
       <c r="T100">
-        <v>30.98132090853493</v>
+        <v>30.93458792226593</v>
       </c>
       <c r="U100">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V100">
-        <v>0.04172179107875579</v>
+        <v>0.04319806566782445</v>
       </c>
       <c r="W100">
-        <v>0.1822645153368207</v>
+        <v>0.1757645153368206</v>
       </c>
       <c r="X100" t="inlineStr">
         <is>
@@ -9462,7 +9462,7 @@
         </is>
       </c>
       <c r="Y100">
-        <v>0.1896445049034355</v>
+        <v>0.1963548439446565</v>
       </c>
       <c r="Z100">
         <v>0</v>
@@ -9473,13 +9473,13 @@
         <v>0.99</v>
       </c>
       <c r="B101">
-        <v>0.2399758593867317</v>
+        <v>0.2363561353259399</v>
       </c>
       <c r="C101">
-        <v>-4.571800836719966</v>
+        <v>-4.506267415642804</v>
       </c>
       <c r="D101">
-        <v>1.796719163280034</v>
+        <v>1.862252584357195</v>
       </c>
       <c r="E101">
         <v>6.443519999999999</v>
@@ -9506,37 +9506,37 @@
         <v>0.235</v>
       </c>
       <c r="M101">
-        <v>1.251805104</v>
+        <v>1.209025224</v>
       </c>
       <c r="N101">
-        <v>-1.016805104</v>
+        <v>-0.9740252239999999</v>
       </c>
       <c r="O101">
-        <v>-0.22369712288</v>
+        <v>-0.21428554928</v>
       </c>
       <c r="P101">
-        <v>-0.7931079811199999</v>
+        <v>-0.7597396747199999</v>
       </c>
       <c r="Q101">
-        <v>-0.71010798112</v>
+        <v>-0.6767396747199999</v>
       </c>
       <c r="R101">
         <v>98.99999999999991</v>
       </c>
       <c r="S101">
-        <v>5.94546343566474</v>
+        <v>6.226991029585562</v>
       </c>
       <c r="T101">
-        <v>61.96264181706986</v>
+        <v>61.86917584453185</v>
       </c>
       <c r="U101">
-        <v>0.1902</v>
+        <v>0.1837</v>
       </c>
       <c r="V101">
-        <v>0.04130035884563704</v>
+        <v>0.04276172157016966</v>
       </c>
       <c r="W101">
-        <v>0.1823446717475598</v>
+        <v>0.1758446717475598</v>
       </c>
       <c r="X101" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="Y101">
-        <v>0.1877289038438048</v>
+        <v>0.1943714616825893</v>
       </c>
       <c r="Z101">
         <v>0</v>
